--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5827,28 +5827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1216.484043040523</v>
+        <v>1289.214840271997</v>
       </c>
       <c r="AB2" t="n">
-        <v>1664.447135176361</v>
+        <v>1763.960620604782</v>
       </c>
       <c r="AC2" t="n">
-        <v>1505.594636661355</v>
+        <v>1595.610694708541</v>
       </c>
       <c r="AD2" t="n">
-        <v>1216484.043040523</v>
+        <v>1289214.840271997</v>
       </c>
       <c r="AE2" t="n">
-        <v>1664447.135176361</v>
+        <v>1763960.620604782</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.511800322238395e-06</v>
+        <v>2.555773454532793e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.40277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1505594.636661355</v>
+        <v>1595610.694708541</v>
       </c>
     </row>
     <row r="3">
@@ -5933,28 +5933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>442.2478731344512</v>
+        <v>483.7352177521823</v>
       </c>
       <c r="AB3" t="n">
-        <v>605.1030506217307</v>
+        <v>661.8678658201794</v>
       </c>
       <c r="AC3" t="n">
-        <v>547.3528647378573</v>
+        <v>598.7001256436846</v>
       </c>
       <c r="AD3" t="n">
-        <v>442247.8731344512</v>
+        <v>483735.2177521823</v>
       </c>
       <c r="AE3" t="n">
-        <v>605103.0506217307</v>
+        <v>661867.8658201795</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.789164369475623e-06</v>
+        <v>4.71522075433875e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.263888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>547352.8647378574</v>
+        <v>598700.1256436846</v>
       </c>
     </row>
     <row r="4">
@@ -6039,28 +6039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>349.0356361766134</v>
+        <v>380.1938374443353</v>
       </c>
       <c r="AB4" t="n">
-        <v>477.5659557823495</v>
+        <v>520.1979813596719</v>
       </c>
       <c r="AC4" t="n">
-        <v>431.98773123051</v>
+        <v>470.5510161211565</v>
       </c>
       <c r="AD4" t="n">
-        <v>349035.6361766134</v>
+        <v>380193.8374443353</v>
       </c>
       <c r="AE4" t="n">
-        <v>477565.9557823495</v>
+        <v>520197.9813596719</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.250450929247678e-06</v>
+        <v>5.495048570920115e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.233333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>431987.7312305099</v>
+        <v>470551.0161211565</v>
       </c>
     </row>
     <row r="5">
@@ -6145,28 +6145,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>306.4969337595866</v>
+        <v>337.7403863733292</v>
       </c>
       <c r="AB5" t="n">
-        <v>419.362626460272</v>
+        <v>462.1112966902436</v>
       </c>
       <c r="AC5" t="n">
-        <v>379.3392459700457</v>
+        <v>418.0080431114044</v>
       </c>
       <c r="AD5" t="n">
-        <v>306496.9337595867</v>
+        <v>337740.3863733292</v>
       </c>
       <c r="AE5" t="n">
-        <v>419362.626460272</v>
+        <v>462111.2966902436</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.490576696921556e-06</v>
+        <v>5.90099309530118e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.804166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>379339.2459700457</v>
+        <v>418008.0431114044</v>
       </c>
     </row>
     <row r="6">
@@ -6251,28 +6251,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>288.7149506595678</v>
+        <v>319.9584032733104</v>
       </c>
       <c r="AB6" t="n">
-        <v>395.0325326970981</v>
+        <v>437.7812029270698</v>
       </c>
       <c r="AC6" t="n">
-        <v>357.331182208128</v>
+        <v>395.9999793494868</v>
       </c>
       <c r="AD6" t="n">
-        <v>288714.9506595678</v>
+        <v>319958.4032733103</v>
       </c>
       <c r="AE6" t="n">
-        <v>395032.5326970981</v>
+        <v>437781.2029270699</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.641129426107122e-06</v>
+        <v>6.155509953843864e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.565277777777777</v>
       </c>
       <c r="AH6" t="n">
-        <v>357331.182208128</v>
+        <v>395999.9793494868</v>
       </c>
     </row>
     <row r="7">
@@ -6357,28 +6357,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>276.9591513026215</v>
+        <v>308.0320117157718</v>
       </c>
       <c r="AB7" t="n">
-        <v>378.9477293876595</v>
+        <v>421.4629878427843</v>
       </c>
       <c r="AC7" t="n">
-        <v>342.7814899513791</v>
+        <v>381.2391518100868</v>
       </c>
       <c r="AD7" t="n">
-        <v>276959.1513026215</v>
+        <v>308032.0117157718</v>
       </c>
       <c r="AE7" t="n">
-        <v>378947.7293876595</v>
+        <v>421462.9878427843</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.747479173758554e-06</v>
+        <v>6.335299478919076e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.406944444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>342781.4899513791</v>
+        <v>381239.1518100868</v>
       </c>
     </row>
     <row r="8">
@@ -6463,28 +6463,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>268.8914440332951</v>
+        <v>299.9643044464454</v>
       </c>
       <c r="AB8" t="n">
-        <v>367.9091363796421</v>
+        <v>410.4243948347669</v>
       </c>
       <c r="AC8" t="n">
-        <v>332.7964047672843</v>
+        <v>371.254066625992</v>
       </c>
       <c r="AD8" t="n">
-        <v>268891.4440332951</v>
+        <v>299964.3044464454</v>
       </c>
       <c r="AE8" t="n">
-        <v>367909.1363796421</v>
+        <v>410424.3948347669</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.821442578503789e-06</v>
+        <v>6.460338284424056e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.302777777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>332796.4047672843</v>
+        <v>371254.066625992</v>
       </c>
     </row>
     <row r="9">
@@ -6569,28 +6569,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>263.3571143386329</v>
+        <v>284.1861722563455</v>
       </c>
       <c r="AB9" t="n">
-        <v>360.3368223340108</v>
+        <v>388.8360582902071</v>
       </c>
       <c r="AC9" t="n">
-        <v>325.9467817463586</v>
+        <v>351.7260906218243</v>
       </c>
       <c r="AD9" t="n">
-        <v>263357.1143386328</v>
+        <v>284186.1722563455</v>
       </c>
       <c r="AE9" t="n">
-        <v>360336.8223340109</v>
+        <v>388836.0582902071</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.869730324008075e-06</v>
+        <v>6.541971114053543e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.236111111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>325946.7817463586</v>
+        <v>351726.0906218243</v>
       </c>
     </row>
     <row r="10">
@@ -6675,28 +6675,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>258.1268180950087</v>
+        <v>278.9558760127214</v>
       </c>
       <c r="AB10" t="n">
-        <v>353.1805002690992</v>
+        <v>381.6797362252955</v>
       </c>
       <c r="AC10" t="n">
-        <v>319.473449015361</v>
+        <v>345.2527578908267</v>
       </c>
       <c r="AD10" t="n">
-        <v>258126.8180950088</v>
+        <v>278955.8760127214</v>
       </c>
       <c r="AE10" t="n">
-        <v>353180.5002690993</v>
+        <v>381679.7362252955</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.916267456382295e-06</v>
+        <v>6.62064444532788e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.173611111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>319473.449015361</v>
+        <v>345252.7578908267</v>
       </c>
     </row>
     <row r="11">
@@ -6781,28 +6781,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>253.7388937143995</v>
+        <v>274.5679516321154</v>
       </c>
       <c r="AB11" t="n">
-        <v>347.1767485498243</v>
+        <v>375.6759845061888</v>
       </c>
       <c r="AC11" t="n">
-        <v>314.0426869339596</v>
+        <v>339.8219958094732</v>
       </c>
       <c r="AD11" t="n">
-        <v>253738.8937143995</v>
+        <v>274567.9516321153</v>
       </c>
       <c r="AE11" t="n">
-        <v>347176.7485498242</v>
+        <v>375675.9845061888</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.952300909976128e-06</v>
+        <v>6.681560786471334e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.126388888888888</v>
       </c>
       <c r="AH11" t="n">
-        <v>314042.6869339596</v>
+        <v>339821.9958094732</v>
       </c>
     </row>
     <row r="12">
@@ -6887,28 +6887,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>250.2711261163242</v>
+        <v>271.10018403404</v>
       </c>
       <c r="AB12" t="n">
-        <v>342.4319959350308</v>
+        <v>370.9312318913929</v>
       </c>
       <c r="AC12" t="n">
-        <v>309.7507668494184</v>
+        <v>335.5300757249313</v>
       </c>
       <c r="AD12" t="n">
-        <v>250271.1261163242</v>
+        <v>271100.18403404</v>
       </c>
       <c r="AE12" t="n">
-        <v>342431.9959350309</v>
+        <v>370931.231891393</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.979581297919636e-06</v>
+        <v>6.727679635839048e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.091666666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>309750.7668494184</v>
+        <v>335530.0757249313</v>
       </c>
     </row>
     <row r="13">
@@ -6993,28 +6993,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>246.5197132926267</v>
+        <v>267.3487712103425</v>
       </c>
       <c r="AB13" t="n">
-        <v>337.2991474089972</v>
+        <v>365.7983833653567</v>
       </c>
       <c r="AC13" t="n">
-        <v>305.1077901827097</v>
+        <v>330.8870990582218</v>
       </c>
       <c r="AD13" t="n">
-        <v>246519.7132926267</v>
+        <v>267348.7712103425</v>
       </c>
       <c r="AE13" t="n">
-        <v>337299.1474089972</v>
+        <v>365798.3833653567</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.007445223573166e-06</v>
+        <v>6.774784984658478e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.055555555555555</v>
       </c>
       <c r="AH13" t="n">
-        <v>305107.7901827097</v>
+        <v>330887.0990582218</v>
       </c>
     </row>
     <row r="14">
@@ -7099,28 +7099,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>243.617176675422</v>
+        <v>264.4462345931377</v>
       </c>
       <c r="AB14" t="n">
-        <v>333.3277687584615</v>
+        <v>361.8270047148189</v>
       </c>
       <c r="AC14" t="n">
-        <v>301.5154343367149</v>
+        <v>327.2947432122264</v>
       </c>
       <c r="AD14" t="n">
-        <v>243617.176675422</v>
+        <v>264446.2345931377</v>
       </c>
       <c r="AE14" t="n">
-        <v>333327.7687584615</v>
+        <v>361827.0047148189</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.027139621286394e-06</v>
+        <v>6.808079341153888e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.030555555555555</v>
       </c>
       <c r="AH14" t="n">
-        <v>301515.4343367149</v>
+        <v>327294.7432122264</v>
       </c>
     </row>
     <row r="15">
@@ -7205,28 +7205,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>240.4137860054764</v>
+        <v>261.2428439231921</v>
       </c>
       <c r="AB15" t="n">
-        <v>328.9447483202219</v>
+        <v>357.4439842765771</v>
       </c>
       <c r="AC15" t="n">
-        <v>297.5507232174916</v>
+        <v>323.3300320930026</v>
       </c>
       <c r="AD15" t="n">
-        <v>240413.7860054764</v>
+        <v>261242.8439231921</v>
       </c>
       <c r="AE15" t="n">
-        <v>328944.748320222</v>
+        <v>357443.9842765771</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.04566694357958e-06</v>
+        <v>6.839400698745867e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.008333333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>297550.7232174916</v>
+        <v>323330.0320930026</v>
       </c>
     </row>
     <row r="16">
@@ -7311,28 +7311,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>227.462192828124</v>
+        <v>258.6203045872977</v>
       </c>
       <c r="AB16" t="n">
-        <v>311.2238071510126</v>
+        <v>353.8557102589364</v>
       </c>
       <c r="AC16" t="n">
-        <v>281.5210438019688</v>
+        <v>320.0842179114313</v>
       </c>
       <c r="AD16" t="n">
-        <v>227462.192828124</v>
+        <v>258620.3045872977</v>
       </c>
       <c r="AE16" t="n">
-        <v>311223.8071510126</v>
+        <v>353855.7102589365</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.065653110147819e-06</v>
+        <v>6.873188304967134e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.983333333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>281521.0438019688</v>
+        <v>320084.2179114313</v>
       </c>
     </row>
     <row r="17">
@@ -7417,28 +7417,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>225.1484580649105</v>
+        <v>256.3065698240809</v>
       </c>
       <c r="AB17" t="n">
-        <v>308.0580531732118</v>
+        <v>350.6899562809638</v>
       </c>
       <c r="AC17" t="n">
-        <v>278.6574249406447</v>
+        <v>317.2205990500583</v>
       </c>
       <c r="AD17" t="n">
-        <v>225148.4580649105</v>
+        <v>256306.5698240809</v>
       </c>
       <c r="AE17" t="n">
-        <v>308058.0531732118</v>
+        <v>350689.9562809638</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.076010904500701e-06</v>
+        <v>6.890698670235088e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.970833333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>278657.4249406446</v>
+        <v>317220.5990500583</v>
       </c>
     </row>
     <row r="18">
@@ -7523,28 +7523,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>221.9559855731206</v>
+        <v>253.114097332291</v>
       </c>
       <c r="AB18" t="n">
-        <v>303.6899714680007</v>
+        <v>346.3218745757528</v>
       </c>
       <c r="AC18" t="n">
-        <v>274.7062268227364</v>
+        <v>313.2694009321501</v>
       </c>
       <c r="AD18" t="n">
-        <v>221955.9855731206</v>
+        <v>253114.097332291</v>
       </c>
       <c r="AE18" t="n">
-        <v>303689.9714680007</v>
+        <v>346321.8745757528</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.093662920228854e-06</v>
+        <v>6.920540278649492e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.949999999999999</v>
       </c>
       <c r="AH18" t="n">
-        <v>274706.2268227364</v>
+        <v>313269.4009321501</v>
       </c>
     </row>
     <row r="19">
@@ -7629,28 +7629,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>219.5072709721179</v>
+        <v>250.6653827312884</v>
       </c>
       <c r="AB19" t="n">
-        <v>300.3395321212468</v>
+        <v>342.9714352289989</v>
       </c>
       <c r="AC19" t="n">
-        <v>271.6755487048645</v>
+        <v>310.2387228142781</v>
       </c>
       <c r="AD19" t="n">
-        <v>219507.2709721179</v>
+        <v>250665.3827312884</v>
       </c>
       <c r="AE19" t="n">
-        <v>300339.5321212468</v>
+        <v>342971.4352289989</v>
       </c>
       <c r="AF19" t="n">
-        <v>4.103728945726726e-06</v>
+        <v>6.937557394191591e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.9375</v>
       </c>
       <c r="AH19" t="n">
-        <v>271675.5487048645</v>
+        <v>310238.7228142781</v>
       </c>
     </row>
     <row r="20">
@@ -7735,28 +7735,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>217.0798031041964</v>
+        <v>248.2379148633669</v>
       </c>
       <c r="AB20" t="n">
-        <v>297.0181634920341</v>
+        <v>339.6500665997862</v>
       </c>
       <c r="AC20" t="n">
-        <v>268.6711668360526</v>
+        <v>307.2343409454663</v>
       </c>
       <c r="AD20" t="n">
-        <v>217079.8031041964</v>
+        <v>248237.9148633669</v>
       </c>
       <c r="AE20" t="n">
-        <v>297018.1634920341</v>
+        <v>339650.0665997862</v>
       </c>
       <c r="AF20" t="n">
-        <v>4.113794971224598e-06</v>
+        <v>6.954574509733689e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.925000000000001</v>
       </c>
       <c r="AH20" t="n">
-        <v>268671.1668360526</v>
+        <v>307234.3409454663</v>
       </c>
     </row>
     <row r="21">
@@ -7841,28 +7841,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>216.2410314404966</v>
+        <v>247.3991431996671</v>
       </c>
       <c r="AB21" t="n">
-        <v>295.8705190977664</v>
+        <v>338.5024222055186</v>
       </c>
       <c r="AC21" t="n">
-        <v>267.6330520120445</v>
+        <v>306.1962261214582</v>
       </c>
       <c r="AD21" t="n">
-        <v>216241.0314404966</v>
+        <v>247399.1431996671</v>
       </c>
       <c r="AE21" t="n">
-        <v>295870.5190977664</v>
+        <v>338502.4222055186</v>
       </c>
       <c r="AF21" t="n">
-        <v>4.112044358094534e-06</v>
+        <v>6.951615011378542e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.927777777777777</v>
       </c>
       <c r="AH21" t="n">
-        <v>267633.0520120445</v>
+        <v>306196.2261214582</v>
       </c>
     </row>
     <row r="22">
@@ -7947,28 +7947,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>215.3382836771905</v>
+        <v>246.4963954363609</v>
       </c>
       <c r="AB22" t="n">
-        <v>294.635339781591</v>
+        <v>337.2672428893431</v>
       </c>
       <c r="AC22" t="n">
-        <v>266.5157564762194</v>
+        <v>305.078930585633</v>
       </c>
       <c r="AD22" t="n">
-        <v>215338.2836771905</v>
+        <v>246496.3954363609</v>
       </c>
       <c r="AE22" t="n">
-        <v>294635.339781591</v>
+        <v>337267.2428893431</v>
       </c>
       <c r="AF22" t="n">
-        <v>4.123715112294965e-06</v>
+        <v>6.971345000412859e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.913888888888889</v>
       </c>
       <c r="AH22" t="n">
-        <v>266515.7564762194</v>
+        <v>305078.930585633</v>
       </c>
     </row>
     <row r="23">
@@ -8053,28 +8053,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>215.9777028532527</v>
+        <v>247.1358146124231</v>
       </c>
       <c r="AB23" t="n">
-        <v>295.5102213074621</v>
+        <v>338.1421244152143</v>
       </c>
       <c r="AC23" t="n">
-        <v>267.3071405371656</v>
+        <v>305.8703146465792</v>
       </c>
       <c r="AD23" t="n">
-        <v>215977.7028532527</v>
+        <v>247135.8146124231</v>
       </c>
       <c r="AE23" t="n">
-        <v>295510.2213074621</v>
+        <v>338142.1244152142</v>
       </c>
       <c r="AF23" t="n">
-        <v>4.123277459012448e-06</v>
+        <v>6.970605125824072e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>4.913888888888889</v>
       </c>
       <c r="AH23" t="n">
-        <v>267307.1405371656</v>
+        <v>305870.3146465792</v>
       </c>
     </row>
     <row r="24">
@@ -8159,28 +8159,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>216.7408986905243</v>
+        <v>247.8990104496947</v>
       </c>
       <c r="AB24" t="n">
-        <v>296.5544595218406</v>
+        <v>339.1863626295927</v>
       </c>
       <c r="AC24" t="n">
-        <v>268.2517181219616</v>
+        <v>306.8148922313752</v>
       </c>
       <c r="AD24" t="n">
-        <v>216740.8986905242</v>
+        <v>247899.0104496947</v>
       </c>
       <c r="AE24" t="n">
-        <v>296554.4595218406</v>
+        <v>339186.3626295927</v>
       </c>
       <c r="AF24" t="n">
-        <v>4.122985690157438e-06</v>
+        <v>6.970111876098213e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>4.913888888888889</v>
       </c>
       <c r="AH24" t="n">
-        <v>268251.7181219616</v>
+        <v>306814.8922313752</v>
       </c>
     </row>
   </sheetData>
@@ -8456,28 +8456,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>750.8976881028051</v>
+        <v>811.3557543113942</v>
       </c>
       <c r="AB2" t="n">
-        <v>1027.411344130252</v>
+        <v>1110.132737538482</v>
       </c>
       <c r="AC2" t="n">
-        <v>929.3566474273384</v>
+        <v>1004.183227148892</v>
       </c>
       <c r="AD2" t="n">
-        <v>750897.6881028051</v>
+        <v>811355.7543113942</v>
       </c>
       <c r="AE2" t="n">
-        <v>1027411.344130252</v>
+        <v>1110132.737538482</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.981821022436055e-06</v>
+        <v>3.432099825095712e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.57638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>929356.6474273384</v>
+        <v>1004183.227148892</v>
       </c>
     </row>
     <row r="3">
@@ -8562,28 +8562,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>349.0213595714505</v>
+        <v>389.2982900923195</v>
       </c>
       <c r="AB3" t="n">
-        <v>477.5464219013262</v>
+        <v>532.6550951327469</v>
       </c>
       <c r="AC3" t="n">
-        <v>431.9700616356756</v>
+        <v>481.819240439398</v>
       </c>
       <c r="AD3" t="n">
-        <v>349021.3595714505</v>
+        <v>389298.2900923195</v>
       </c>
       <c r="AE3" t="n">
-        <v>477546.4219013262</v>
+        <v>532655.0951327469</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.15443367430387e-06</v>
+        <v>5.462819870861299e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.644444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>431970.0616356755</v>
+        <v>481819.240439398</v>
       </c>
     </row>
     <row r="4">
@@ -8668,28 +8668,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>285.1196130220383</v>
+        <v>315.3913165536187</v>
       </c>
       <c r="AB4" t="n">
-        <v>390.1132331263281</v>
+        <v>431.5323133915417</v>
       </c>
       <c r="AC4" t="n">
-        <v>352.8813736841119</v>
+        <v>390.347475060858</v>
       </c>
       <c r="AD4" t="n">
-        <v>285119.6130220382</v>
+        <v>315391.3165536186</v>
       </c>
       <c r="AE4" t="n">
-        <v>390113.233126328</v>
+        <v>431532.3133915417</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.560697928979309e-06</v>
+        <v>6.166384653770046e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.886111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>352881.3736841119</v>
+        <v>390347.475060858</v>
       </c>
     </row>
     <row r="5">
@@ -8774,28 +8774,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>261.8831014176646</v>
+        <v>292.154804949245</v>
       </c>
       <c r="AB5" t="n">
-        <v>358.3200128266815</v>
+        <v>399.7390930918953</v>
       </c>
       <c r="AC5" t="n">
-        <v>324.1224537077989</v>
+        <v>361.5885550845448</v>
       </c>
       <c r="AD5" t="n">
-        <v>261883.1014176646</v>
+        <v>292154.804949245</v>
       </c>
       <c r="AE5" t="n">
-        <v>358320.0128266815</v>
+        <v>399739.0930918953</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.778167019242053e-06</v>
+        <v>6.542995668692595e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.547222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>324122.4537077988</v>
+        <v>361588.5550845448</v>
       </c>
     </row>
     <row r="6">
@@ -8880,28 +8880,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>248.4677747495585</v>
+        <v>278.5688860805497</v>
       </c>
       <c r="AB6" t="n">
-        <v>339.9645710367759</v>
+        <v>381.1502395273072</v>
       </c>
       <c r="AC6" t="n">
-        <v>307.5188295203994</v>
+        <v>344.7737956145411</v>
       </c>
       <c r="AD6" t="n">
-        <v>248467.7747495584</v>
+        <v>278568.8860805497</v>
       </c>
       <c r="AE6" t="n">
-        <v>339964.5710367758</v>
+        <v>381150.2395273072</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.914443624729394e-06</v>
+        <v>6.778998268605894e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.354166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>307518.8295203994</v>
+        <v>344773.7956145412</v>
       </c>
     </row>
     <row r="7">
@@ -8986,28 +8986,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>239.3250843404851</v>
+        <v>259.5063095367593</v>
       </c>
       <c r="AB7" t="n">
-        <v>327.4551386720539</v>
+        <v>355.0679813185697</v>
       </c>
       <c r="AC7" t="n">
-        <v>296.203279823464</v>
+        <v>321.1807915225662</v>
       </c>
       <c r="AD7" t="n">
-        <v>239325.0843404851</v>
+        <v>259506.3095367593</v>
       </c>
       <c r="AE7" t="n">
-        <v>327455.1386720539</v>
+        <v>355067.9813185696</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.006200187449552e-06</v>
+        <v>6.937901458802222e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.231944444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>296203.279823464</v>
+        <v>321180.7915225662</v>
       </c>
     </row>
     <row r="8">
@@ -9092,28 +9092,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>233.4274089894934</v>
+        <v>253.6086341857644</v>
       </c>
       <c r="AB8" t="n">
-        <v>319.3856790697577</v>
+        <v>346.998521716101</v>
       </c>
       <c r="AC8" t="n">
-        <v>288.9039581200507</v>
+        <v>313.8814698191038</v>
       </c>
       <c r="AD8" t="n">
-        <v>233427.4089894934</v>
+        <v>253608.6341857644</v>
       </c>
       <c r="AE8" t="n">
-        <v>319385.6790697577</v>
+        <v>346998.521716101</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.062642546754387e-06</v>
+        <v>7.035647829087465e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.159722222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>288903.9581200507</v>
+        <v>313881.4698191038</v>
       </c>
     </row>
     <row r="9">
@@ -9198,28 +9198,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>227.8239070097605</v>
+        <v>248.0051322060315</v>
       </c>
       <c r="AB9" t="n">
-        <v>311.7187204520308</v>
+        <v>339.331563098374</v>
       </c>
       <c r="AC9" t="n">
-        <v>281.9687232721532</v>
+        <v>306.9462349712064</v>
       </c>
       <c r="AD9" t="n">
-        <v>227823.9070097605</v>
+        <v>248005.1322060315</v>
       </c>
       <c r="AE9" t="n">
-        <v>311718.7204520308</v>
+        <v>339331.5630983741</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.114406528683687e-06</v>
+        <v>7.125292227504144e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.094444444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>281968.7232721532</v>
+        <v>306946.2349712063</v>
       </c>
     </row>
     <row r="10">
@@ -9304,28 +9304,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>223.3900014922928</v>
+        <v>243.5712266885638</v>
       </c>
       <c r="AB10" t="n">
-        <v>305.6520553129285</v>
+        <v>333.2648979592718</v>
       </c>
       <c r="AC10" t="n">
-        <v>276.4810521393069</v>
+        <v>301.4585638383601</v>
       </c>
       <c r="AD10" t="n">
-        <v>223390.0014922928</v>
+        <v>243571.2266885638</v>
       </c>
       <c r="AE10" t="n">
-        <v>305652.0553129285</v>
+        <v>333264.8979592718</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.152588124684016e-06</v>
+        <v>7.191414772108866e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.047222222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>276481.052139307</v>
+        <v>301458.5638383601</v>
       </c>
     </row>
     <row r="11">
@@ -9410,28 +9410,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>218.6942358616385</v>
+        <v>238.8754610579096</v>
       </c>
       <c r="AB11" t="n">
-        <v>299.2271016145119</v>
+        <v>326.8399442608551</v>
       </c>
       <c r="AC11" t="n">
-        <v>270.669287004386</v>
+        <v>295.6467987034391</v>
       </c>
       <c r="AD11" t="n">
-        <v>218694.2358616385</v>
+        <v>238875.4610579096</v>
       </c>
       <c r="AE11" t="n">
-        <v>299227.1016145119</v>
+        <v>326839.9442608551</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.187449581901708e-06</v>
+        <v>7.251787530226222e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.005555555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>270669.287004386</v>
+        <v>295646.7987034391</v>
       </c>
     </row>
     <row r="12">
@@ -9516,28 +9516,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>205.2872440577127</v>
+        <v>235.473606734721</v>
       </c>
       <c r="AB12" t="n">
-        <v>280.8830639536555</v>
+        <v>322.1853770966503</v>
       </c>
       <c r="AC12" t="n">
-        <v>254.0759785518574</v>
+        <v>291.4364568966584</v>
       </c>
       <c r="AD12" t="n">
-        <v>205287.2440577127</v>
+        <v>235473.606734721</v>
       </c>
       <c r="AE12" t="n">
-        <v>280883.0639536555</v>
+        <v>322185.3770966502</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.206012176004634e-06</v>
+        <v>7.283934063769229e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.983333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>254075.9785518573</v>
+        <v>291436.4568966584</v>
       </c>
     </row>
     <row r="13">
@@ -9622,28 +9622,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>201.1050542285941</v>
+        <v>231.2914169056024</v>
       </c>
       <c r="AB13" t="n">
-        <v>275.1608073242647</v>
+        <v>316.4631204672595</v>
       </c>
       <c r="AC13" t="n">
-        <v>248.8998460639362</v>
+        <v>286.2603244087372</v>
       </c>
       <c r="AD13" t="n">
-        <v>201105.0542285941</v>
+        <v>231291.4169056024</v>
       </c>
       <c r="AE13" t="n">
-        <v>275160.8073242647</v>
+        <v>316463.1204672595</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.231969624668889e-06</v>
+        <v>7.328886939943189e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.952777777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>248899.8460639362</v>
+        <v>286260.3244087372</v>
       </c>
     </row>
     <row r="14">
@@ -9728,28 +9728,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>197.7476943926426</v>
+        <v>227.934057069651</v>
       </c>
       <c r="AB14" t="n">
-        <v>270.5671194804559</v>
+        <v>311.8694326234506</v>
       </c>
       <c r="AC14" t="n">
-        <v>244.7445733406576</v>
+        <v>282.1050516854587</v>
       </c>
       <c r="AD14" t="n">
-        <v>197747.6943926426</v>
+        <v>227934.057069651</v>
       </c>
       <c r="AE14" t="n">
-        <v>270567.1194804559</v>
+        <v>311869.4326234506</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.254154188352876e-06</v>
+        <v>7.367305967836054e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.926388888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>244744.5733406576</v>
+        <v>282105.0516854587</v>
       </c>
     </row>
     <row r="15">
@@ -9834,28 +9834,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>196.1190786731096</v>
+        <v>226.305441350118</v>
       </c>
       <c r="AB15" t="n">
-        <v>268.3387756035372</v>
+        <v>309.6410887465319</v>
       </c>
       <c r="AC15" t="n">
-        <v>242.728899475851</v>
+        <v>280.0893778206521</v>
       </c>
       <c r="AD15" t="n">
-        <v>196119.0786731096</v>
+        <v>226305.441350118</v>
       </c>
       <c r="AE15" t="n">
-        <v>268338.7756035372</v>
+        <v>309641.0887465319</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.261699958313415e-06</v>
+        <v>7.380373664398251e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.918055555555555</v>
       </c>
       <c r="AH15" t="n">
-        <v>242728.899475851</v>
+        <v>280089.3778206521</v>
       </c>
     </row>
     <row r="16">
@@ -9940,28 +9940,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>194.7527239871427</v>
+        <v>224.9390866641511</v>
       </c>
       <c r="AB16" t="n">
-        <v>266.4692688428838</v>
+        <v>307.7715819858785</v>
       </c>
       <c r="AC16" t="n">
-        <v>241.0378158165645</v>
+        <v>278.3982941613656</v>
       </c>
       <c r="AD16" t="n">
-        <v>194752.7239871427</v>
+        <v>224939.0866641511</v>
       </c>
       <c r="AE16" t="n">
-        <v>266469.2688428838</v>
+        <v>307771.5819858785</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.271509459262116e-06</v>
+        <v>7.397361669929107e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.906944444444444</v>
       </c>
       <c r="AH16" t="n">
-        <v>241037.8158165645</v>
+        <v>278398.2941613657</v>
       </c>
     </row>
     <row r="17">
@@ -10046,28 +10046,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>195.5000549575371</v>
+        <v>225.6864176345454</v>
       </c>
       <c r="AB17" t="n">
-        <v>267.4918000464924</v>
+        <v>308.7941131894871</v>
       </c>
       <c r="AC17" t="n">
-        <v>241.9627580772326</v>
+        <v>279.3232364220337</v>
       </c>
       <c r="AD17" t="n">
-        <v>195500.0549575371</v>
+        <v>225686.4176345454</v>
       </c>
       <c r="AE17" t="n">
-        <v>267491.8000464924</v>
+        <v>308794.1131894871</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.271056713064483e-06</v>
+        <v>7.396577608135376e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.906944444444444</v>
       </c>
       <c r="AH17" t="n">
-        <v>241962.7580772327</v>
+        <v>279323.2364220337</v>
       </c>
     </row>
   </sheetData>
@@ -10343,28 +10343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>267.2271995816074</v>
+        <v>303.6033211778973</v>
       </c>
       <c r="AB2" t="n">
-        <v>365.6320436995596</v>
+        <v>415.403458068827</v>
       </c>
       <c r="AC2" t="n">
-        <v>330.7366346166692</v>
+        <v>375.7579350531525</v>
       </c>
       <c r="AD2" t="n">
-        <v>267227.1995816074</v>
+        <v>303603.3211778973</v>
       </c>
       <c r="AE2" t="n">
-        <v>365632.0436995596</v>
+        <v>415403.458068827</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.42541627413483e-06</v>
+        <v>6.481624705030456e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.827777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>330736.6346166692</v>
+        <v>375757.9350531525</v>
       </c>
     </row>
     <row r="3">
@@ -10449,28 +10449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.224400544264</v>
+        <v>215.5704973824097</v>
       </c>
       <c r="AB3" t="n">
-        <v>257.536928699038</v>
+        <v>294.9530648176175</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.9579656794265</v>
+        <v>266.8031582807375</v>
       </c>
       <c r="AD3" t="n">
-        <v>188224.400544264</v>
+        <v>215570.4973824097</v>
       </c>
       <c r="AE3" t="n">
-        <v>257536.928699038</v>
+        <v>294953.0648176175</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.241143939043591e-06</v>
+        <v>8.025156983245271e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.515277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>232957.9656794264</v>
+        <v>266803.1582807375</v>
       </c>
     </row>
     <row r="4">
@@ -10555,28 +10555,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>168.5707619948828</v>
+        <v>186.8015827288643</v>
       </c>
       <c r="AB4" t="n">
-        <v>230.645953378449</v>
+        <v>255.5901665937171</v>
       </c>
       <c r="AC4" t="n">
-        <v>208.6334273017051</v>
+        <v>231.1969998171391</v>
       </c>
       <c r="AD4" t="n">
-        <v>168570.7619948827</v>
+        <v>186801.5827288643</v>
       </c>
       <c r="AE4" t="n">
-        <v>230645.953378449</v>
+        <v>255590.1665937171</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.530117653532327e-06</v>
+        <v>8.571957435230535e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.162500000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>208633.4273017051</v>
+        <v>231196.9998171391</v>
       </c>
     </row>
     <row r="5">
@@ -10661,28 +10661,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>157.9409744885688</v>
+        <v>176.1717952225503</v>
       </c>
       <c r="AB5" t="n">
-        <v>216.1018091591899</v>
+        <v>241.046022374458</v>
       </c>
       <c r="AC5" t="n">
-        <v>195.4773557938927</v>
+        <v>218.0409283093267</v>
       </c>
       <c r="AD5" t="n">
-        <v>157940.9744885688</v>
+        <v>176171.7952225503</v>
       </c>
       <c r="AE5" t="n">
-        <v>216101.8091591899</v>
+        <v>241046.022374458</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.664332135145102e-06</v>
+        <v>8.825920116018563e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.013888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>195477.3557938928</v>
+        <v>218040.9283093267</v>
       </c>
     </row>
     <row r="6">
@@ -10767,28 +10767,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>147.8047085372006</v>
+        <v>175.0654645207747</v>
       </c>
       <c r="AB6" t="n">
-        <v>202.2329229040415</v>
+        <v>239.5322919004234</v>
       </c>
       <c r="AC6" t="n">
-        <v>182.9320965778272</v>
+        <v>216.6716661471995</v>
       </c>
       <c r="AD6" t="n">
-        <v>147804.7085372006</v>
+        <v>175065.4645207747</v>
       </c>
       <c r="AE6" t="n">
-        <v>202232.9229040415</v>
+        <v>239532.2919004234</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.686897681614502e-06</v>
+        <v>8.868618985812283e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.990277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>182932.0965778272</v>
+        <v>216671.6661471995</v>
       </c>
     </row>
   </sheetData>
@@ -11064,28 +11064,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>385.3860325351168</v>
+        <v>423.3725556510067</v>
       </c>
       <c r="AB2" t="n">
-        <v>527.30217174636</v>
+        <v>579.277008520645</v>
       </c>
       <c r="AC2" t="n">
-        <v>476.9771925481328</v>
+        <v>523.9916238478216</v>
       </c>
       <c r="AD2" t="n">
-        <v>385386.0325351168</v>
+        <v>423372.5556510067</v>
       </c>
       <c r="AE2" t="n">
-        <v>527302.17174636</v>
+        <v>579277.0085206451</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.844426695107509e-06</v>
+        <v>5.181927700743935e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.866666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>476977.1925481329</v>
+        <v>523991.6238478217</v>
       </c>
     </row>
     <row r="3">
@@ -11170,28 +11170,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>236.3211448046728</v>
+        <v>264.8110371415931</v>
       </c>
       <c r="AB3" t="n">
-        <v>323.3450160746984</v>
+        <v>362.3261436555682</v>
       </c>
       <c r="AC3" t="n">
-        <v>292.4854215582056</v>
+        <v>327.7462450330165</v>
       </c>
       <c r="AD3" t="n">
-        <v>236321.1448046728</v>
+        <v>264811.0371415931</v>
       </c>
       <c r="AE3" t="n">
-        <v>323345.0160746984</v>
+        <v>362326.1436555682</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.814586275869709e-06</v>
+        <v>6.949347762699076e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.865277777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>292485.4215582056</v>
+        <v>327746.2450330165</v>
       </c>
     </row>
     <row r="4">
@@ -11276,28 +11276,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>209.0803314852249</v>
+        <v>237.3996316215497</v>
       </c>
       <c r="AB4" t="n">
-        <v>286.0729335111822</v>
+        <v>324.8206493170291</v>
       </c>
       <c r="AC4" t="n">
-        <v>258.770534242843</v>
+        <v>293.8202224349529</v>
       </c>
       <c r="AD4" t="n">
-        <v>209080.3314852249</v>
+        <v>237399.6316215497</v>
       </c>
       <c r="AE4" t="n">
-        <v>286072.9335111822</v>
+        <v>324820.649317029</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.141946665791462e-06</v>
+        <v>7.545727298715823e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.402777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>258770.534242843</v>
+        <v>293820.2224349529</v>
       </c>
     </row>
     <row r="5">
@@ -11382,28 +11382,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>195.6595521073627</v>
+        <v>214.6529031738584</v>
       </c>
       <c r="AB5" t="n">
-        <v>267.7100310834013</v>
+        <v>293.6975719400788</v>
       </c>
       <c r="AC5" t="n">
-        <v>242.1601614502682</v>
+        <v>265.6674878813354</v>
       </c>
       <c r="AD5" t="n">
-        <v>195659.5521073627</v>
+        <v>214652.9031738584</v>
       </c>
       <c r="AE5" t="n">
-        <v>267710.0310834013</v>
+        <v>293697.5719400788</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.310621039929294e-06</v>
+        <v>7.853015376574846e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.190277777777777</v>
       </c>
       <c r="AH5" t="n">
-        <v>242160.1614502682</v>
+        <v>265667.4878813354</v>
       </c>
     </row>
     <row r="6">
@@ -11488,28 +11488,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>186.8495627784422</v>
+        <v>205.8429138449379</v>
       </c>
       <c r="AB6" t="n">
-        <v>255.6558150142801</v>
+        <v>281.6433558709576</v>
       </c>
       <c r="AC6" t="n">
-        <v>231.2563828445816</v>
+        <v>254.7637092756488</v>
       </c>
       <c r="AD6" t="n">
-        <v>186849.5627784422</v>
+        <v>205842.9138449379</v>
       </c>
       <c r="AE6" t="n">
-        <v>255655.8150142801</v>
+        <v>281643.3558709576</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.409860213252029e-06</v>
+        <v>8.033807598123229e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.073611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>231256.3828445816</v>
+        <v>254763.7092756488</v>
       </c>
     </row>
     <row r="7">
@@ -11594,28 +11594,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>170.4875917419982</v>
+        <v>198.8921432243436</v>
       </c>
       <c r="AB7" t="n">
-        <v>233.2686444030113</v>
+        <v>272.1330048615075</v>
       </c>
       <c r="AC7" t="n">
-        <v>211.0058123758539</v>
+        <v>246.161012818676</v>
       </c>
       <c r="AD7" t="n">
-        <v>170487.5917419982</v>
+        <v>198892.1432243436</v>
       </c>
       <c r="AE7" t="n">
-        <v>233268.6444030113</v>
+        <v>272133.0048615074</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.478167696188458e-06</v>
+        <v>8.158248997370818e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.997222222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>211005.8123758539</v>
+        <v>246161.012818676</v>
       </c>
     </row>
     <row r="8">
@@ -11700,28 +11700,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>165.0220531431383</v>
+        <v>193.4266046254837</v>
       </c>
       <c r="AB8" t="n">
-        <v>225.7904533695096</v>
+        <v>264.6548138280057</v>
       </c>
       <c r="AC8" t="n">
-        <v>204.2413293988802</v>
+        <v>239.3965298417023</v>
       </c>
       <c r="AD8" t="n">
-        <v>165022.0531431383</v>
+        <v>193426.6046254837</v>
       </c>
       <c r="AE8" t="n">
-        <v>225790.4533695096</v>
+        <v>264654.8138280057</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.520859873023726e-06</v>
+        <v>8.23602487190056e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.949999999999999</v>
       </c>
       <c r="AH8" t="n">
-        <v>204241.3293988802</v>
+        <v>239396.5298417023</v>
       </c>
     </row>
     <row r="9">
@@ -11806,28 +11806,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>165.1244103817839</v>
+        <v>193.5289618641292</v>
       </c>
       <c r="AB9" t="n">
-        <v>225.930503059107</v>
+        <v>264.794863517603</v>
       </c>
       <c r="AC9" t="n">
-        <v>204.3680129426634</v>
+        <v>239.5232133854855</v>
       </c>
       <c r="AD9" t="n">
-        <v>165124.4103817838</v>
+        <v>193528.9618641292</v>
       </c>
       <c r="AE9" t="n">
-        <v>225930.503059107</v>
+        <v>264794.863517603</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.529237205836684e-06</v>
+        <v>8.25128655294036e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.940277777777777</v>
       </c>
       <c r="AH9" t="n">
-        <v>204368.0129426634</v>
+        <v>239523.2133854855</v>
       </c>
     </row>
   </sheetData>
@@ -12103,28 +12103,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.3893372063092</v>
+        <v>230.7120357614903</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.6545081867113</v>
+        <v>315.6703856253935</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.9646744230211</v>
+        <v>285.5432470675684</v>
       </c>
       <c r="AD2" t="n">
-        <v>204389.3372063092</v>
+        <v>230712.0357614903</v>
       </c>
       <c r="AE2" t="n">
-        <v>279654.5081867113</v>
+        <v>315670.3856253935</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.930463757511004e-06</v>
+        <v>7.70244256746074e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.180555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>252964.6744230211</v>
+        <v>285543.2470675684</v>
       </c>
     </row>
     <row r="3">
@@ -12209,28 +12209,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.4500934805967</v>
+        <v>170.0554829232822</v>
       </c>
       <c r="AB3" t="n">
-        <v>208.5889435235127</v>
+        <v>232.6774140539487</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.681507510109</v>
+        <v>210.4710082215086</v>
       </c>
       <c r="AD3" t="n">
-        <v>152450.0934805967</v>
+        <v>170055.4829232822</v>
       </c>
       <c r="AE3" t="n">
-        <v>208588.9435235127</v>
+        <v>232677.4140539487</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.62567994743252e-06</v>
+        <v>9.064842300725389e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.251388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>188681.507510109</v>
+        <v>210471.0082215086</v>
       </c>
     </row>
     <row r="4">
@@ -12315,28 +12315,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.7346182897475</v>
+        <v>161.340007732433</v>
       </c>
       <c r="AB4" t="n">
-        <v>196.66404586777</v>
+        <v>220.752516398206</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.8947053499277</v>
+        <v>199.6842060613273</v>
       </c>
       <c r="AD4" t="n">
-        <v>143734.6182897475</v>
+        <v>161340.007732433</v>
       </c>
       <c r="AE4" t="n">
-        <v>196664.04586777</v>
+        <v>220752.516398206</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.777140883400327e-06</v>
+        <v>9.361656934437886e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.084722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>177894.7053499277</v>
+        <v>199684.2060613273</v>
       </c>
     </row>
     <row r="5">
@@ -12421,28 +12421,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>144.6330679437053</v>
+        <v>162.2384573863907</v>
       </c>
       <c r="AB5" t="n">
-        <v>197.8933443211157</v>
+        <v>221.9818148515517</v>
       </c>
       <c r="AC5" t="n">
-        <v>179.0066812842177</v>
+        <v>200.7961819956172</v>
       </c>
       <c r="AD5" t="n">
-        <v>144633.0679437053</v>
+        <v>162238.4573863907</v>
       </c>
       <c r="AE5" t="n">
-        <v>197893.3443211157</v>
+        <v>221981.8148515517</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.778015369173814e-06</v>
+        <v>9.363370644794196e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>179006.6812842177</v>
+        <v>200796.1819956172</v>
       </c>
     </row>
   </sheetData>
@@ -12718,28 +12718,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>846.9863510227234</v>
+        <v>897.8649729813549</v>
       </c>
       <c r="AB2" t="n">
-        <v>1158.88409186991</v>
+        <v>1228.498467040094</v>
       </c>
       <c r="AC2" t="n">
-        <v>1048.281820645883</v>
+        <v>1111.252297554214</v>
       </c>
       <c r="AD2" t="n">
-        <v>846986.3510227234</v>
+        <v>897864.9729813549</v>
       </c>
       <c r="AE2" t="n">
-        <v>1158884.09186991</v>
+        <v>1228498.467040094</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.857232814162773e-06</v>
+        <v>3.195334154328093e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.18472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1048281.820645883</v>
+        <v>1111252.297554214</v>
       </c>
     </row>
     <row r="3">
@@ -12824,28 +12824,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>368.771020554804</v>
+        <v>409.3885056602967</v>
       </c>
       <c r="AB3" t="n">
-        <v>504.5687793523002</v>
+        <v>560.1434143906112</v>
       </c>
       <c r="AC3" t="n">
-        <v>456.4134432176455</v>
+        <v>506.6841130873901</v>
       </c>
       <c r="AD3" t="n">
-        <v>368771.020554804</v>
+        <v>409388.5056602967</v>
       </c>
       <c r="AE3" t="n">
-        <v>504568.7793523002</v>
+        <v>560143.4143906111</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.05625322575425e-06</v>
+        <v>5.258226239627522e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.797222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>456413.4432176455</v>
+        <v>506684.1130873901</v>
       </c>
     </row>
     <row r="4">
@@ -12930,28 +12930,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>297.912193138355</v>
+        <v>338.444337389276</v>
       </c>
       <c r="AB4" t="n">
-        <v>407.616605610276</v>
+        <v>463.0744735263891</v>
       </c>
       <c r="AC4" t="n">
-        <v>368.7142488643295</v>
+        <v>418.8792957021354</v>
       </c>
       <c r="AD4" t="n">
-        <v>297912.1931383549</v>
+        <v>338444.337389276</v>
       </c>
       <c r="AE4" t="n">
-        <v>407616.605610276</v>
+        <v>463074.4735263891</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.479955960697328e-06</v>
+        <v>5.987198832574171e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.969444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>368714.2488643295</v>
+        <v>418879.2957021354</v>
       </c>
     </row>
     <row r="5">
@@ -13036,28 +13036,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>272.7947491185461</v>
+        <v>303.3218685885944</v>
       </c>
       <c r="AB5" t="n">
-        <v>373.2498105989496</v>
+        <v>415.018362219331</v>
       </c>
       <c r="AC5" t="n">
-        <v>337.6273725347845</v>
+        <v>375.409592211047</v>
       </c>
       <c r="AD5" t="n">
-        <v>272794.7491185461</v>
+        <v>303321.8685885944</v>
       </c>
       <c r="AE5" t="n">
-        <v>373249.8105989496</v>
+        <v>415018.362219331</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.703099088312955e-06</v>
+        <v>6.371112390172618e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.609722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>337627.3725347844</v>
+        <v>375409.592211047</v>
       </c>
     </row>
     <row r="6">
@@ -13142,28 +13142,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>258.5453165968921</v>
+        <v>288.9018438663481</v>
       </c>
       <c r="AB6" t="n">
-        <v>353.7531083822268</v>
+        <v>395.2882482277612</v>
       </c>
       <c r="AC6" t="n">
-        <v>319.9914082138322</v>
+        <v>357.5624926074437</v>
       </c>
       <c r="AD6" t="n">
-        <v>258545.3165968921</v>
+        <v>288901.8438663482</v>
       </c>
       <c r="AE6" t="n">
-        <v>353753.1083822268</v>
+        <v>395288.2482277612</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.840843606097132e-06</v>
+        <v>6.608099244427424e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.408333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>319991.4082138322</v>
+        <v>357562.4926074438</v>
       </c>
     </row>
     <row r="7">
@@ -13248,28 +13248,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>249.1266425698932</v>
+        <v>279.4831698393523</v>
       </c>
       <c r="AB7" t="n">
-        <v>340.8660630557542</v>
+        <v>382.4012029014537</v>
       </c>
       <c r="AC7" t="n">
-        <v>308.3342844063388</v>
+        <v>345.9053687999972</v>
       </c>
       <c r="AD7" t="n">
-        <v>249126.6425698932</v>
+        <v>279483.1698393524</v>
       </c>
       <c r="AE7" t="n">
-        <v>340866.0630557542</v>
+        <v>382401.2029014537</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.932374165145901e-06</v>
+        <v>6.765575851163516e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.281944444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>308334.2844063388</v>
+        <v>345905.3687999973</v>
       </c>
     </row>
     <row r="8">
@@ -13354,28 +13354,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>242.362320587428</v>
+        <v>262.7138230760142</v>
       </c>
       <c r="AB8" t="n">
-        <v>331.6108192985256</v>
+        <v>359.4566428484885</v>
       </c>
       <c r="AC8" t="n">
-        <v>299.962348123481</v>
+        <v>325.1506053555948</v>
       </c>
       <c r="AD8" t="n">
-        <v>242362.320587428</v>
+        <v>262713.8230760142</v>
       </c>
       <c r="AE8" t="n">
-        <v>331610.8192985256</v>
+        <v>359456.6428484885</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.996535292322245e-06</v>
+        <v>6.875963864708914e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.197222222222223</v>
       </c>
       <c r="AH8" t="n">
-        <v>299962.348123481</v>
+        <v>325150.6053555948</v>
       </c>
     </row>
     <row r="9">
@@ -13460,28 +13460,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>237.1320696578228</v>
+        <v>257.4835721464058</v>
       </c>
       <c r="AB9" t="n">
-        <v>324.4545592342572</v>
+        <v>352.3003827840456</v>
       </c>
       <c r="AC9" t="n">
-        <v>293.48907147587</v>
+        <v>318.6773287079342</v>
       </c>
       <c r="AD9" t="n">
-        <v>237132.0696578228</v>
+        <v>257483.5721464058</v>
       </c>
       <c r="AE9" t="n">
-        <v>324454.5592342572</v>
+        <v>352300.3827840456</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.047385602904894e-06</v>
+        <v>6.963450868451188e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.131944444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>293489.07147587</v>
+        <v>318677.3287079342</v>
       </c>
     </row>
     <row r="10">
@@ -13566,28 +13566,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>232.0242056315048</v>
+        <v>252.3757081200877</v>
       </c>
       <c r="AB10" t="n">
-        <v>317.4657543303955</v>
+        <v>345.3115778801838</v>
       </c>
       <c r="AC10" t="n">
-        <v>287.1672683031813</v>
+        <v>312.3555255352455</v>
       </c>
       <c r="AD10" t="n">
-        <v>232024.2056315048</v>
+        <v>252375.7081200877</v>
       </c>
       <c r="AE10" t="n">
-        <v>317465.7543303955</v>
+        <v>345311.5778801838</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.092253524007232e-06</v>
+        <v>7.0406452835179e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.076388888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>287167.2683031813</v>
+        <v>312355.5255352455</v>
       </c>
     </row>
     <row r="11">
@@ -13672,28 +13672,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>227.599059962454</v>
+        <v>247.9505624510369</v>
       </c>
       <c r="AB11" t="n">
-        <v>311.4110748023546</v>
+        <v>339.2568983521429</v>
       </c>
       <c r="AC11" t="n">
-        <v>281.6904388914986</v>
+        <v>306.8786961235628</v>
       </c>
       <c r="AD11" t="n">
-        <v>227599.059962454</v>
+        <v>247950.5624510369</v>
       </c>
       <c r="AE11" t="n">
-        <v>311411.0748023546</v>
+        <v>339256.8983521429</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.119323836405643e-06</v>
+        <v>7.087219247274815e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.043055555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>281690.4388914986</v>
+        <v>306878.6961235628</v>
       </c>
     </row>
     <row r="12">
@@ -13778,28 +13778,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>224.0577883886685</v>
+        <v>244.4092908772514</v>
       </c>
       <c r="AB12" t="n">
-        <v>306.565750805228</v>
+        <v>334.4115743550163</v>
       </c>
       <c r="AC12" t="n">
-        <v>277.3075458162013</v>
+        <v>302.4958030482655</v>
       </c>
       <c r="AD12" t="n">
-        <v>224057.7883886685</v>
+        <v>244409.2908772514</v>
       </c>
       <c r="AE12" t="n">
-        <v>306565.750805228</v>
+        <v>334411.5743550163</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.149086224070193e-06</v>
+        <v>7.138424875935734e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.006944444444445</v>
       </c>
       <c r="AH12" t="n">
-        <v>277307.5458162013</v>
+        <v>302495.8030482655</v>
       </c>
     </row>
     <row r="13">
@@ -13884,28 +13884,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>209.8842477505079</v>
+        <v>240.3260263659841</v>
       </c>
       <c r="AB13" t="n">
-        <v>287.1728872116243</v>
+        <v>328.8246717097866</v>
       </c>
       <c r="AC13" t="n">
-        <v>259.76550990591</v>
+        <v>297.4421065502276</v>
       </c>
       <c r="AD13" t="n">
-        <v>209884.2477505078</v>
+        <v>240326.0263659841</v>
       </c>
       <c r="AE13" t="n">
-        <v>287172.8872116243</v>
+        <v>328824.6717097866</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.177801693575689e-06</v>
+        <v>7.18782930157843e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.972222222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>259765.50990591</v>
+        <v>297442.1065502276</v>
       </c>
     </row>
     <row r="14">
@@ -13990,28 +13990,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>206.5328537899296</v>
+        <v>236.9746324054058</v>
       </c>
       <c r="AB14" t="n">
-        <v>282.5873621416968</v>
+        <v>324.2391466398591</v>
       </c>
       <c r="AC14" t="n">
-        <v>255.61762091283</v>
+        <v>293.2942175571476</v>
       </c>
       <c r="AD14" t="n">
-        <v>206532.8537899296</v>
+        <v>236974.6324054058</v>
       </c>
       <c r="AE14" t="n">
-        <v>282587.3621416968</v>
+        <v>324239.1466398591</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.197992258071742e-06</v>
+        <v>7.22256678835845e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.948611111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>255617.62091283</v>
+        <v>293294.2175571476</v>
       </c>
     </row>
     <row r="15">
@@ -14096,28 +14096,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>204.3885072336832</v>
+        <v>234.8302858491595</v>
       </c>
       <c r="AB15" t="n">
-        <v>279.6533725815486</v>
+        <v>321.3051570797109</v>
       </c>
       <c r="AC15" t="n">
-        <v>252.9636471984213</v>
+        <v>290.6402438427389</v>
       </c>
       <c r="AD15" t="n">
-        <v>204388.5072336832</v>
+        <v>234830.2858491594</v>
       </c>
       <c r="AE15" t="n">
-        <v>279653.3725815486</v>
+        <v>321305.1570797109</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.203825087815046e-06</v>
+        <v>7.232602062317122e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.941666666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>252963.6471984213</v>
+        <v>290640.2438427389</v>
       </c>
     </row>
     <row r="16">
@@ -14202,28 +14202,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>200.7425139498365</v>
+        <v>231.1842925653128</v>
       </c>
       <c r="AB16" t="n">
-        <v>274.6647637207206</v>
+        <v>316.3165482188829</v>
       </c>
       <c r="AC16" t="n">
-        <v>248.4511441657126</v>
+        <v>286.1277408100303</v>
       </c>
       <c r="AD16" t="n">
-        <v>200742.5139498365</v>
+        <v>231184.2925653128</v>
       </c>
       <c r="AE16" t="n">
-        <v>274664.7637207206</v>
+        <v>316316.5482188829</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.224464331522122e-06</v>
+        <v>7.268111493247811e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>248451.1441657126</v>
+        <v>286127.7408100303</v>
       </c>
     </row>
     <row r="17">
@@ -14308,28 +14308,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>199.7090408723365</v>
+        <v>230.1508194878127</v>
       </c>
       <c r="AB17" t="n">
-        <v>273.2507202624714</v>
+        <v>314.9025047606337</v>
       </c>
       <c r="AC17" t="n">
-        <v>247.1720550304958</v>
+        <v>284.8486516748134</v>
       </c>
       <c r="AD17" t="n">
-        <v>199709.0408723365</v>
+        <v>230150.8194878127</v>
       </c>
       <c r="AE17" t="n">
-        <v>273250.7202624714</v>
+        <v>314902.5047606337</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.224015652311098e-06</v>
+        <v>7.267339549097142e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.918055555555555</v>
       </c>
       <c r="AH17" t="n">
-        <v>247172.0550304958</v>
+        <v>284848.6516748134</v>
       </c>
     </row>
     <row r="18">
@@ -14414,28 +14414,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>199.9947008679446</v>
+        <v>230.4364794834208</v>
       </c>
       <c r="AB18" t="n">
-        <v>273.6415728708918</v>
+        <v>315.293357369054</v>
       </c>
       <c r="AC18" t="n">
-        <v>247.5256052145337</v>
+        <v>285.2022018588514</v>
       </c>
       <c r="AD18" t="n">
-        <v>199994.7008679446</v>
+        <v>230436.4794834208</v>
       </c>
       <c r="AE18" t="n">
-        <v>273641.5728708918</v>
+        <v>315293.3573690541</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.232091878109518e-06</v>
+        <v>7.281234543809151e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.908333333333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>247525.6052145337</v>
+        <v>285202.2018588514</v>
       </c>
     </row>
   </sheetData>
@@ -14711,28 +14711,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.2403601794704</v>
+        <v>191.0927866282339</v>
       </c>
       <c r="AB2" t="n">
-        <v>226.0891506876457</v>
+        <v>261.4615810833866</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.5115194641978</v>
+        <v>236.5080547484983</v>
       </c>
       <c r="AD2" t="n">
-        <v>165240.3601794704</v>
+        <v>191092.7866282339</v>
       </c>
       <c r="AE2" t="n">
-        <v>226089.1506876457</v>
+        <v>261461.5810833866</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.247172231175611e-06</v>
+        <v>8.514137884459601e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.852777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>204511.5194641978</v>
+        <v>236508.0547484983</v>
       </c>
     </row>
     <row r="3">
@@ -14817,28 +14817,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.9422430556265</v>
+        <v>153.1772835300199</v>
       </c>
       <c r="AB3" t="n">
-        <v>186.0021742971181</v>
+        <v>209.5839170304937</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.2503878379447</v>
+        <v>189.5815221420382</v>
       </c>
       <c r="AD3" t="n">
-        <v>135942.2430556265</v>
+        <v>153177.2835300199</v>
       </c>
       <c r="AE3" t="n">
-        <v>186002.1742971181</v>
+        <v>209583.9170304937</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.805073358259533e-06</v>
+        <v>9.632540167988642e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.173611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>168250.3878379447</v>
+        <v>189581.5221420382</v>
       </c>
     </row>
     <row r="4">
@@ -14923,28 +14923,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>136.4487744625247</v>
+        <v>153.683814936918</v>
       </c>
       <c r="AB4" t="n">
-        <v>186.6952329146243</v>
+        <v>210.276975648</v>
       </c>
       <c r="AC4" t="n">
-        <v>168.8773019137102</v>
+        <v>190.2084362178038</v>
       </c>
       <c r="AD4" t="n">
-        <v>136448.7744625247</v>
+        <v>153683.814936918</v>
       </c>
       <c r="AE4" t="n">
-        <v>186695.2329146243</v>
+        <v>210276.975648</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.813127753741975e-06</v>
+        <v>9.64868649546981e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.165277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>168877.3019137102</v>
+        <v>190208.4362178038</v>
       </c>
     </row>
   </sheetData>
@@ -15220,28 +15220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>546.4842802614137</v>
+        <v>585.7413767472246</v>
       </c>
       <c r="AB2" t="n">
-        <v>747.7239014385714</v>
+        <v>801.4371927513233</v>
       </c>
       <c r="AC2" t="n">
-        <v>676.36218172236</v>
+        <v>724.9491518993008</v>
       </c>
       <c r="AD2" t="n">
-        <v>546484.2802614137</v>
+        <v>585741.3767472246</v>
       </c>
       <c r="AE2" t="n">
-        <v>747723.9014385714</v>
+        <v>801437.1927513233</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.376658928556272e-06</v>
+        <v>4.209239564630191e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.086111111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>676362.18172236</v>
+        <v>724949.1518993007</v>
       </c>
     </row>
     <row r="3">
@@ -15326,28 +15326,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.7965515888471</v>
+        <v>325.1540554757714</v>
       </c>
       <c r="AB3" t="n">
-        <v>404.7218915067215</v>
+        <v>444.8901234864749</v>
       </c>
       <c r="AC3" t="n">
-        <v>366.0958022120616</v>
+        <v>402.430434508135</v>
       </c>
       <c r="AD3" t="n">
-        <v>295796.5515888471</v>
+        <v>325154.0554757714</v>
       </c>
       <c r="AE3" t="n">
-        <v>404721.8915067216</v>
+        <v>444890.1234864749</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.458711233680452e-06</v>
+        <v>6.125634600957408e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.244444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>366095.8022120616</v>
+        <v>402430.434508135</v>
       </c>
     </row>
     <row r="4">
@@ -15432,28 +15432,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>247.5596212199854</v>
+        <v>277.0023764529333</v>
       </c>
       <c r="AB4" t="n">
-        <v>338.7219953127086</v>
+        <v>379.0068719452752</v>
       </c>
       <c r="AC4" t="n">
-        <v>306.3948434794708</v>
+        <v>342.8349880263031</v>
       </c>
       <c r="AD4" t="n">
-        <v>247559.6212199854</v>
+        <v>277002.3764529334</v>
       </c>
       <c r="AE4" t="n">
-        <v>338721.9953127086</v>
+        <v>379006.8719452752</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.823489895531484e-06</v>
+        <v>6.771684716667086e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.648611111111112</v>
       </c>
       <c r="AH4" t="n">
-        <v>306394.8434794708</v>
+        <v>342834.9880263031</v>
       </c>
     </row>
     <row r="5">
@@ -15538,28 +15538,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>228.8122015780221</v>
+        <v>258.0843646103775</v>
       </c>
       <c r="AB5" t="n">
-        <v>313.0709486808047</v>
+        <v>353.1224135385112</v>
       </c>
       <c r="AC5" t="n">
-        <v>283.1918967366377</v>
+        <v>319.4209060008151</v>
       </c>
       <c r="AD5" t="n">
-        <v>228812.2015780221</v>
+        <v>258084.3646103775</v>
       </c>
       <c r="AE5" t="n">
-        <v>313070.9486808048</v>
+        <v>353122.4135385113</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.029202670309367e-06</v>
+        <v>7.136017326677274e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.359722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>283191.8967366377</v>
+        <v>319420.9060008151</v>
       </c>
     </row>
     <row r="6">
@@ -15644,28 +15644,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>218.4661473885754</v>
+        <v>238.094740385756</v>
       </c>
       <c r="AB6" t="n">
-        <v>298.9150209031137</v>
+        <v>325.77172779425</v>
       </c>
       <c r="AC6" t="n">
-        <v>270.3869908380755</v>
+        <v>294.6805313171552</v>
       </c>
       <c r="AD6" t="n">
-        <v>218466.1473885754</v>
+        <v>238094.740385756</v>
       </c>
       <c r="AE6" t="n">
-        <v>298915.0209031137</v>
+        <v>325771.72779425</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.14286558668324e-06</v>
+        <v>7.337322797514349e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.2125</v>
       </c>
       <c r="AH6" t="n">
-        <v>270386.9908380755</v>
+        <v>294680.5313171552</v>
       </c>
     </row>
     <row r="7">
@@ -15750,28 +15750,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>211.1812789233305</v>
+        <v>230.8098719205112</v>
       </c>
       <c r="AB7" t="n">
-        <v>288.9475424832562</v>
+        <v>315.8042493743926</v>
       </c>
       <c r="AC7" t="n">
-        <v>261.3707945691622</v>
+        <v>285.6643350482419</v>
       </c>
       <c r="AD7" t="n">
-        <v>211181.2789233305</v>
+        <v>230809.8719205112</v>
       </c>
       <c r="AE7" t="n">
-        <v>288947.5424832562</v>
+        <v>315804.2493743926</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.217967075887864e-06</v>
+        <v>7.470333115454576e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.119444444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>261370.7945691622</v>
+        <v>285664.3350482419</v>
       </c>
     </row>
     <row r="8">
@@ -15856,28 +15856,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>205.1836739013318</v>
+        <v>224.8122668985124</v>
       </c>
       <c r="AB8" t="n">
-        <v>280.7413546965024</v>
+        <v>307.5980615876388</v>
       </c>
       <c r="AC8" t="n">
-        <v>253.9477938273167</v>
+        <v>278.2413343063964</v>
       </c>
       <c r="AD8" t="n">
-        <v>205183.6739013318</v>
+        <v>224812.2668985124</v>
       </c>
       <c r="AE8" t="n">
-        <v>280741.3546965024</v>
+        <v>307598.0615876387</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.276897644021512e-06</v>
+        <v>7.574703530567094e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.050000000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>253947.7938273167</v>
+        <v>278241.3343063964</v>
       </c>
     </row>
     <row r="9">
@@ -15962,28 +15962,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>190.2044625537342</v>
+        <v>219.561876932107</v>
       </c>
       <c r="AB9" t="n">
-        <v>260.2461368945644</v>
+        <v>300.4142464047487</v>
       </c>
       <c r="AC9" t="n">
-        <v>235.4086108471703</v>
+        <v>271.7431323620112</v>
       </c>
       <c r="AD9" t="n">
-        <v>190204.4625537342</v>
+        <v>219561.876932107</v>
       </c>
       <c r="AE9" t="n">
-        <v>260246.1368945644</v>
+        <v>300414.2464047487</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.322767083597835e-06</v>
+        <v>7.655941716472616e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.995833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>235408.6108471703</v>
+        <v>271743.1323620112</v>
       </c>
     </row>
     <row r="10">
@@ -16068,28 +16068,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>184.5749883891088</v>
+        <v>213.9324027674816</v>
       </c>
       <c r="AB10" t="n">
-        <v>252.5436419876557</v>
+        <v>292.7117514978401</v>
       </c>
       <c r="AC10" t="n">
-        <v>228.441231243655</v>
+        <v>264.7757527584959</v>
       </c>
       <c r="AD10" t="n">
-        <v>184574.9883891088</v>
+        <v>213932.4027674816</v>
       </c>
       <c r="AE10" t="n">
-        <v>252543.6419876557</v>
+        <v>292711.75149784</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.356819311622293e-06</v>
+        <v>7.716250742619429e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.956944444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>228441.231243655</v>
+        <v>264775.7527584959</v>
       </c>
     </row>
     <row r="11">
@@ -16174,28 +16174,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>181.3354696231287</v>
+        <v>210.6928840015015</v>
       </c>
       <c r="AB11" t="n">
-        <v>248.1111894945626</v>
+        <v>288.2792990047469</v>
       </c>
       <c r="AC11" t="n">
-        <v>224.4318057955152</v>
+        <v>260.766327310356</v>
       </c>
       <c r="AD11" t="n">
-        <v>181335.4696231287</v>
+        <v>210692.8840015015</v>
       </c>
       <c r="AE11" t="n">
-        <v>248111.1894945626</v>
+        <v>288279.2990047469</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.384807444245133e-06</v>
+        <v>7.765819805205847e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.925000000000001</v>
       </c>
       <c r="AH11" t="n">
-        <v>224431.8057955152</v>
+        <v>260766.327310356</v>
       </c>
     </row>
     <row r="12">
@@ -16280,28 +16280,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>180.0767927993858</v>
+        <v>209.4342071777586</v>
       </c>
       <c r="AB12" t="n">
-        <v>246.389012335416</v>
+        <v>286.5571218456002</v>
       </c>
       <c r="AC12" t="n">
-        <v>222.8739908073461</v>
+        <v>259.208512322187</v>
       </c>
       <c r="AD12" t="n">
-        <v>180076.7927993858</v>
+        <v>209434.2071777586</v>
       </c>
       <c r="AE12" t="n">
-        <v>246389.012335416</v>
+        <v>286557.1218456003</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.389783112266973e-06</v>
+        <v>7.774632082998989e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.919444444444445</v>
       </c>
       <c r="AH12" t="n">
-        <v>222873.9908073461</v>
+        <v>259208.512322187</v>
       </c>
     </row>
     <row r="13">
@@ -16386,28 +16386,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>180.6566748695341</v>
+        <v>210.0140892479069</v>
       </c>
       <c r="AB13" t="n">
-        <v>247.182432566384</v>
+        <v>287.3505420765682</v>
       </c>
       <c r="AC13" t="n">
-        <v>223.591688125043</v>
+        <v>259.9262096398839</v>
       </c>
       <c r="AD13" t="n">
-        <v>180656.6748695341</v>
+        <v>210014.0892479069</v>
       </c>
       <c r="AE13" t="n">
-        <v>247182.432566384</v>
+        <v>287350.5420765682</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.390094091518337e-06</v>
+        <v>7.77518285036106e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.919444444444445</v>
       </c>
       <c r="AH13" t="n">
-        <v>223591.688125043</v>
+        <v>259926.2096398839</v>
       </c>
     </row>
   </sheetData>
@@ -16683,28 +16683,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>679.0494092458939</v>
+        <v>728.9751163690019</v>
       </c>
       <c r="AB2" t="n">
-        <v>929.1053592758715</v>
+        <v>997.4159143284562</v>
       </c>
       <c r="AC2" t="n">
-        <v>840.4328477941434</v>
+        <v>902.2239393469754</v>
       </c>
       <c r="AD2" t="n">
-        <v>679049.4092458939</v>
+        <v>728975.1163690018</v>
       </c>
       <c r="AE2" t="n">
-        <v>929105.3592758714</v>
+        <v>997415.9143284562</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.105765874958943e-06</v>
+        <v>3.672271812127631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.04861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>840432.8477941434</v>
+        <v>902223.9393469754</v>
       </c>
     </row>
     <row r="3">
@@ -16789,28 +16789,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>331.0631460362496</v>
+        <v>361.1550619722981</v>
       </c>
       <c r="AB3" t="n">
-        <v>452.975201881998</v>
+        <v>494.1482888273362</v>
       </c>
       <c r="AC3" t="n">
-        <v>409.7438843690682</v>
+        <v>446.9874696831337</v>
       </c>
       <c r="AD3" t="n">
-        <v>331063.1460362496</v>
+        <v>361155.0619722981</v>
       </c>
       <c r="AE3" t="n">
-        <v>452975.201881998</v>
+        <v>494148.2888273362</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.249296381212873e-06</v>
+        <v>5.66648916286052e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.512499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>409743.8843690682</v>
+        <v>446987.4696831336</v>
       </c>
     </row>
     <row r="4">
@@ -16895,28 +16895,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>271.796142122096</v>
+        <v>301.8027172035729</v>
       </c>
       <c r="AB4" t="n">
-        <v>371.883472450975</v>
+        <v>412.9397922741153</v>
       </c>
       <c r="AC4" t="n">
-        <v>336.3914357819849</v>
+        <v>373.5293980641115</v>
       </c>
       <c r="AD4" t="n">
-        <v>271796.142122096</v>
+        <v>301802.7172035729</v>
       </c>
       <c r="AE4" t="n">
-        <v>371883.472450975</v>
+        <v>412939.7922741154</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.650583265501822e-06</v>
+        <v>6.366298449008991e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.795833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>336391.4357819849</v>
+        <v>373529.3980641115</v>
       </c>
     </row>
     <row r="5">
@@ -17001,28 +17001,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>250.6573085049711</v>
+        <v>280.493291385859</v>
       </c>
       <c r="AB5" t="n">
-        <v>342.9603877163419</v>
+        <v>383.7832957648016</v>
       </c>
       <c r="AC5" t="n">
-        <v>310.2287296607238</v>
+        <v>347.1555566602467</v>
       </c>
       <c r="AD5" t="n">
-        <v>250657.3085049711</v>
+        <v>280493.291385859</v>
       </c>
       <c r="AE5" t="n">
-        <v>342960.3877163419</v>
+        <v>383783.2957648016</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.858844150400453e-06</v>
+        <v>6.729487247097436e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.483333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>310228.7296607238</v>
+        <v>347155.5566602467</v>
       </c>
     </row>
     <row r="6">
@@ -17107,28 +17107,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>238.8117742272264</v>
+        <v>268.6477571081141</v>
       </c>
       <c r="AB6" t="n">
-        <v>326.7528051294498</v>
+        <v>367.5757131779011</v>
       </c>
       <c r="AC6" t="n">
-        <v>295.5679760084345</v>
+        <v>332.494803007955</v>
       </c>
       <c r="AD6" t="n">
-        <v>238811.7742272264</v>
+        <v>268647.7571081141</v>
       </c>
       <c r="AE6" t="n">
-        <v>326752.8051294498</v>
+        <v>367575.7131779011</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.983922560423698e-06</v>
+        <v>6.94761307243073e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.311111111111112</v>
       </c>
       <c r="AH6" t="n">
-        <v>295567.9760084345</v>
+        <v>332494.803007955</v>
       </c>
     </row>
     <row r="7">
@@ -17213,28 +17213,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>229.9140208024111</v>
+        <v>249.9184936986132</v>
       </c>
       <c r="AB7" t="n">
-        <v>314.5785063524467</v>
+        <v>341.9495087040746</v>
       </c>
       <c r="AC7" t="n">
-        <v>284.5555752199691</v>
+        <v>309.3143275226094</v>
       </c>
       <c r="AD7" t="n">
-        <v>229914.0208024111</v>
+        <v>249918.4936986132</v>
       </c>
       <c r="AE7" t="n">
-        <v>314578.5063524467</v>
+        <v>341949.5087040746</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.076703013169321e-06</v>
+        <v>7.109414080503781e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.190277777777777</v>
       </c>
       <c r="AH7" t="n">
-        <v>284555.575219969</v>
+        <v>309314.3275226094</v>
       </c>
     </row>
     <row r="8">
@@ -17319,28 +17319,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>223.7699302774778</v>
+        <v>243.7744031736799</v>
       </c>
       <c r="AB8" t="n">
-        <v>306.1718906380935</v>
+        <v>333.5428929897215</v>
       </c>
       <c r="AC8" t="n">
-        <v>276.9512751106318</v>
+        <v>301.7100274132722</v>
       </c>
       <c r="AD8" t="n">
-        <v>223769.9302774778</v>
+        <v>243774.4031736799</v>
       </c>
       <c r="AE8" t="n">
-        <v>306171.8906380935</v>
+        <v>333542.8929897214</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.134290880390742e-06</v>
+        <v>7.209842292411193e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.118055555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>276951.2751106318</v>
+        <v>301710.0274132722</v>
       </c>
     </row>
     <row r="9">
@@ -17425,28 +17425,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>218.306721722993</v>
+        <v>238.311194619195</v>
       </c>
       <c r="AB9" t="n">
-        <v>298.6968876741</v>
+        <v>326.0678900257279</v>
       </c>
       <c r="AC9" t="n">
-        <v>270.1896759382869</v>
+        <v>294.9484282409272</v>
       </c>
       <c r="AD9" t="n">
-        <v>218306.721722993</v>
+        <v>238311.194619195</v>
       </c>
       <c r="AE9" t="n">
-        <v>298696.8876741</v>
+        <v>326067.8900257279</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.187765328524919e-06</v>
+        <v>7.303097060610934e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.052777777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>270189.6759382869</v>
+        <v>294948.4282409272</v>
       </c>
     </row>
     <row r="10">
@@ -17531,28 +17531,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>213.9368261342572</v>
+        <v>233.9412990304593</v>
       </c>
       <c r="AB10" t="n">
-        <v>292.7178037434076</v>
+        <v>320.0888060950356</v>
       </c>
       <c r="AC10" t="n">
-        <v>264.7812273862409</v>
+        <v>289.5399796888812</v>
       </c>
       <c r="AD10" t="n">
-        <v>213936.8261342573</v>
+        <v>233941.2990304593</v>
       </c>
       <c r="AE10" t="n">
-        <v>292717.8037434076</v>
+        <v>320088.8060950356</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.220672681222873e-06</v>
+        <v>7.36048461027231e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.013888888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>264781.2273862408</v>
+        <v>289539.9796888812</v>
       </c>
     </row>
     <row r="11">
@@ -17637,28 +17637,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>199.8006236412147</v>
+        <v>229.7218578681195</v>
       </c>
       <c r="AB11" t="n">
-        <v>273.3760278471971</v>
+        <v>314.3155805481188</v>
       </c>
       <c r="AC11" t="n">
-        <v>247.2854034352056</v>
+        <v>284.3177426853874</v>
       </c>
       <c r="AD11" t="n">
-        <v>199800.6236412147</v>
+        <v>229721.8578681196</v>
       </c>
       <c r="AE11" t="n">
-        <v>273376.0278471971</v>
+        <v>314315.5805481187</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.245505544601423e-06</v>
+        <v>7.403790955618629e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.983333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>247285.4034352056</v>
+        <v>284317.7426853874</v>
       </c>
     </row>
     <row r="12">
@@ -17743,28 +17743,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>196.1623015132593</v>
+        <v>226.0835357401642</v>
       </c>
       <c r="AB12" t="n">
-        <v>268.3979150002871</v>
+        <v>309.3374677012088</v>
       </c>
       <c r="AC12" t="n">
-        <v>242.7823946915778</v>
+        <v>279.8147339417597</v>
       </c>
       <c r="AD12" t="n">
-        <v>196162.3015132593</v>
+        <v>226083.5357401642</v>
       </c>
       <c r="AE12" t="n">
-        <v>268397.9150002871</v>
+        <v>309337.4677012088</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.273842431646883e-06</v>
+        <v>7.453208012271482e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.951388888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>242782.3946915779</v>
+        <v>279814.7339417597</v>
       </c>
     </row>
     <row r="13">
@@ -17849,28 +17849,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>192.7718816836692</v>
+        <v>222.6931159105742</v>
       </c>
       <c r="AB13" t="n">
-        <v>263.758993014678</v>
+        <v>304.6985457155996</v>
       </c>
       <c r="AC13" t="n">
-        <v>238.5862049095058</v>
+        <v>275.6185441596876</v>
       </c>
       <c r="AD13" t="n">
-        <v>192771.8816836692</v>
+        <v>222693.1159105742</v>
       </c>
       <c r="AE13" t="n">
-        <v>263758.993014678</v>
+        <v>304698.5457155996</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.294409527083105e-06</v>
+        <v>7.489075230809843e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.927777777777777</v>
       </c>
       <c r="AH13" t="n">
-        <v>238586.2049095058</v>
+        <v>275618.5441596876</v>
       </c>
     </row>
     <row r="14">
@@ -17955,28 +17955,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>190.640463596072</v>
+        <v>220.5616978229769</v>
       </c>
       <c r="AB14" t="n">
-        <v>260.8426927556991</v>
+        <v>301.7822454566208</v>
       </c>
       <c r="AC14" t="n">
-        <v>235.94823225419</v>
+        <v>272.9805715043718</v>
       </c>
       <c r="AD14" t="n">
-        <v>190640.463596072</v>
+        <v>220561.6978229769</v>
       </c>
       <c r="AE14" t="n">
-        <v>260842.6927556992</v>
+        <v>301782.2454566208</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.302026969837261e-06</v>
+        <v>7.50235938582405e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.918055555555555</v>
       </c>
       <c r="AH14" t="n">
-        <v>235948.23225419</v>
+        <v>272980.5715043718</v>
       </c>
     </row>
     <row r="15">
@@ -18061,28 +18061,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>190.1529812164686</v>
+        <v>220.0742154433735</v>
       </c>
       <c r="AB15" t="n">
-        <v>260.1756978577214</v>
+        <v>301.1152505586431</v>
       </c>
       <c r="AC15" t="n">
-        <v>235.3448944131418</v>
+        <v>272.3772336633236</v>
       </c>
       <c r="AD15" t="n">
-        <v>190152.9812164686</v>
+        <v>220074.2154433735</v>
       </c>
       <c r="AE15" t="n">
-        <v>260175.6978577214</v>
+        <v>301115.2505586431</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.311320249997332e-06</v>
+        <v>7.518566054941384e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.908333333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>235344.8944131418</v>
+        <v>272377.2336633236</v>
       </c>
     </row>
     <row r="16">
@@ -18167,28 +18167,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>190.8489354220842</v>
+        <v>220.7701696489891</v>
       </c>
       <c r="AB16" t="n">
-        <v>261.1279331051767</v>
+        <v>302.0674858060984</v>
       </c>
       <c r="AC16" t="n">
-        <v>236.2062496650508</v>
+        <v>273.2385889152326</v>
       </c>
       <c r="AD16" t="n">
-        <v>190848.9354220842</v>
+        <v>220770.169648989</v>
       </c>
       <c r="AE16" t="n">
-        <v>261127.9331051767</v>
+        <v>302067.4858060984</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.311015552287166e-06</v>
+        <v>7.518034688740817e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.908333333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>236206.2496650508</v>
+        <v>273238.5889152326</v>
       </c>
     </row>
   </sheetData>
@@ -18464,28 +18464,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1071.405063447468</v>
+        <v>1143.681699859842</v>
       </c>
       <c r="AB2" t="n">
-        <v>1465.943674864284</v>
+        <v>1564.835757423851</v>
       </c>
       <c r="AC2" t="n">
-        <v>1326.036068000106</v>
+        <v>1415.490028996097</v>
       </c>
       <c r="AD2" t="n">
-        <v>1071405.063447468</v>
+        <v>1143681.699859842</v>
       </c>
       <c r="AE2" t="n">
-        <v>1465943.674864284</v>
+        <v>1564835.757423851</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.622556682887459e-06</v>
+        <v>2.758238823727399e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1326036.068000106</v>
+        <v>1415490.028996097</v>
       </c>
     </row>
     <row r="3">
@@ -18570,28 +18570,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>419.7152682252938</v>
+        <v>450.7276337053929</v>
       </c>
       <c r="AB3" t="n">
-        <v>574.2729465166508</v>
+        <v>616.705433135527</v>
       </c>
       <c r="AC3" t="n">
-        <v>519.4651424982435</v>
+        <v>557.8479321485831</v>
       </c>
       <c r="AD3" t="n">
-        <v>419715.2682252938</v>
+        <v>450727.6337053929</v>
       </c>
       <c r="AE3" t="n">
-        <v>574272.9465166508</v>
+        <v>616705.433135527</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.877633834278112e-06</v>
+        <v>4.891786799122846e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.097222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>519465.1424982435</v>
+        <v>557847.9321485831</v>
       </c>
     </row>
     <row r="4">
@@ -18676,28 +18676,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>334.5741784570029</v>
+        <v>365.5012030825304</v>
       </c>
       <c r="AB4" t="n">
-        <v>457.7791513358911</v>
+        <v>500.0948708325694</v>
       </c>
       <c r="AC4" t="n">
-        <v>414.0893516294671</v>
+        <v>452.3665182478678</v>
       </c>
       <c r="AD4" t="n">
-        <v>334574.1784570029</v>
+        <v>365501.2030825304</v>
       </c>
       <c r="AE4" t="n">
-        <v>457779.1513358911</v>
+        <v>500094.8708325694</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.328344023969073e-06</v>
+        <v>5.657964250158234e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.136111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>414089.3516294671</v>
+        <v>452366.5182478678</v>
       </c>
     </row>
     <row r="5">
@@ -18782,28 +18782,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>295.3075223825629</v>
+        <v>326.319798354111</v>
       </c>
       <c r="AB5" t="n">
-        <v>404.0527801722375</v>
+        <v>446.4851443215652</v>
       </c>
       <c r="AC5" t="n">
-        <v>365.4905499242371</v>
+        <v>403.8732287933501</v>
       </c>
       <c r="AD5" t="n">
-        <v>295307.5223825629</v>
+        <v>326319.798354111</v>
       </c>
       <c r="AE5" t="n">
-        <v>404052.7801722375</v>
+        <v>446485.1443215652</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.55700775805372e-06</v>
+        <v>6.046677443097884e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.741666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>365490.5499242371</v>
+        <v>403873.22879335</v>
       </c>
     </row>
     <row r="6">
@@ -18888,28 +18888,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>278.460105654088</v>
+        <v>309.472381625636</v>
       </c>
       <c r="AB6" t="n">
-        <v>381.0014013487685</v>
+        <v>423.4337654980961</v>
       </c>
       <c r="AC6" t="n">
-        <v>344.6391623428665</v>
+        <v>383.0218412119795</v>
       </c>
       <c r="AD6" t="n">
-        <v>278460.105654088</v>
+        <v>309472.381625636</v>
       </c>
       <c r="AE6" t="n">
-        <v>381001.4013487684</v>
+        <v>423433.7654980961</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.706999403562621e-06</v>
+        <v>6.301653299559907e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.509722222222223</v>
       </c>
       <c r="AH6" t="n">
-        <v>344639.1623428665</v>
+        <v>383021.8412119795</v>
       </c>
     </row>
     <row r="7">
@@ -18994,28 +18994,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>268.0509590071884</v>
+        <v>298.8926427781442</v>
       </c>
       <c r="AB7" t="n">
-        <v>366.7591476873405</v>
+        <v>408.9581000618211</v>
       </c>
       <c r="AC7" t="n">
-        <v>331.7561693817566</v>
+        <v>369.9277129682186</v>
       </c>
       <c r="AD7" t="n">
-        <v>268050.9590071884</v>
+        <v>298892.6427781443</v>
       </c>
       <c r="AE7" t="n">
-        <v>366759.1476873405</v>
+        <v>408958.1000618212</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.803611669346295e-06</v>
+        <v>6.465887748281031e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.369444444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>331756.1693817566</v>
+        <v>369927.7129682186</v>
       </c>
     </row>
     <row r="8">
@@ -19100,28 +19100,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>259.6420218576269</v>
+        <v>280.3169620138767</v>
       </c>
       <c r="AB8" t="n">
-        <v>355.2536689031856</v>
+        <v>383.5420341389524</v>
       </c>
       <c r="AC8" t="n">
-        <v>321.3487573447206</v>
+        <v>346.9373207053558</v>
       </c>
       <c r="AD8" t="n">
-        <v>259642.0218576269</v>
+        <v>280316.9620138766</v>
       </c>
       <c r="AE8" t="n">
-        <v>355253.6689031856</v>
+        <v>383542.0341389524</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.882724909820598e-06</v>
+        <v>6.600375013748256e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.259722222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>321348.7573447207</v>
+        <v>346937.3207053558</v>
       </c>
     </row>
     <row r="9">
@@ -19206,28 +19206,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>253.7829567807967</v>
+        <v>274.4578969370496</v>
       </c>
       <c r="AB9" t="n">
-        <v>347.2370375811942</v>
+        <v>375.5254028171294</v>
       </c>
       <c r="AC9" t="n">
-        <v>314.0972220647918</v>
+        <v>339.6857854254749</v>
       </c>
       <c r="AD9" t="n">
-        <v>253782.9567807967</v>
+        <v>274457.8969370496</v>
       </c>
       <c r="AE9" t="n">
-        <v>347237.0375811942</v>
+        <v>375525.4028171294</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.935810188280119e-06</v>
+        <v>6.690616468829421e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.188888888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>314097.2220647918</v>
+        <v>339685.7854254749</v>
       </c>
     </row>
     <row r="10">
@@ -19312,28 +19312,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>249.2101978143714</v>
+        <v>269.8851379706243</v>
       </c>
       <c r="AB10" t="n">
-        <v>340.9803870274465</v>
+        <v>369.2687522633785</v>
       </c>
       <c r="AC10" t="n">
-        <v>308.4376974586275</v>
+        <v>334.0262608193098</v>
       </c>
       <c r="AD10" t="n">
-        <v>249210.1978143714</v>
+        <v>269885.1379706243</v>
       </c>
       <c r="AE10" t="n">
-        <v>340980.3870274465</v>
+        <v>369268.7522633785</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.974631555353012e-06</v>
+        <v>6.75661021991371e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.138888888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>308437.6974586275</v>
+        <v>334026.2608193097</v>
       </c>
     </row>
     <row r="11">
@@ -19418,28 +19418,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>244.5505280545069</v>
+        <v>265.2254682107596</v>
       </c>
       <c r="AB11" t="n">
-        <v>334.6048212918815</v>
+        <v>362.8931865278103</v>
       </c>
       <c r="AC11" t="n">
-        <v>302.6706067687002</v>
+        <v>328.2591701293815</v>
       </c>
       <c r="AD11" t="n">
-        <v>244550.5280545069</v>
+        <v>265225.4682107596</v>
       </c>
       <c r="AE11" t="n">
-        <v>334604.8212918816</v>
+        <v>362893.1865278103</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.014041124957311e-06</v>
+        <v>6.823603876317456e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.0875</v>
       </c>
       <c r="AH11" t="n">
-        <v>302670.6067687002</v>
+        <v>328259.1701293815</v>
       </c>
     </row>
     <row r="12">
@@ -19524,28 +19524,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>240.9221549495085</v>
+        <v>261.5970951057612</v>
       </c>
       <c r="AB12" t="n">
-        <v>329.6403211371013</v>
+        <v>357.9286863730274</v>
       </c>
       <c r="AC12" t="n">
-        <v>298.1799115409708</v>
+        <v>323.7684749016512</v>
       </c>
       <c r="AD12" t="n">
-        <v>240922.1549495085</v>
+        <v>261597.0951057613</v>
       </c>
       <c r="AE12" t="n">
-        <v>329640.3211371013</v>
+        <v>357928.6863730274</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.041686643933461e-06</v>
+        <v>6.870599426332025e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.052777777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>298179.9115409708</v>
+        <v>323768.4749016513</v>
       </c>
     </row>
     <row r="13">
@@ -19630,28 +19630,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>238.0484050764821</v>
+        <v>258.7233452327348</v>
       </c>
       <c r="AB13" t="n">
-        <v>325.7083297799319</v>
+        <v>353.9966950158559</v>
       </c>
       <c r="AC13" t="n">
-        <v>294.6231839203439</v>
+        <v>320.2117472810237</v>
       </c>
       <c r="AD13" t="n">
-        <v>238048.4050764821</v>
+        <v>258723.3452327348</v>
       </c>
       <c r="AE13" t="n">
-        <v>325708.3297799319</v>
+        <v>353996.6950158559</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.058009264180018e-06</v>
+        <v>6.898346798947011e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.033333333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>294623.1839203439</v>
+        <v>320211.7472810238</v>
       </c>
     </row>
     <row r="14">
@@ -19736,28 +19736,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>234.9925373934068</v>
+        <v>255.6674775496563</v>
       </c>
       <c r="AB14" t="n">
-        <v>321.5271568005829</v>
+        <v>349.8155220363352</v>
       </c>
       <c r="AC14" t="n">
-        <v>290.8410562218295</v>
+        <v>316.4296195824605</v>
       </c>
       <c r="AD14" t="n">
-        <v>234992.5373934068</v>
+        <v>255667.4775496563</v>
       </c>
       <c r="AE14" t="n">
-        <v>321527.1568005829</v>
+        <v>349815.5220363352</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.076390593286501e-06</v>
+        <v>6.929593840180101e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.009722222222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>290841.0562218295</v>
+        <v>316429.6195824606</v>
       </c>
     </row>
     <row r="15">
@@ -19842,28 +19842,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>222.0467089113065</v>
+        <v>252.9736440282825</v>
       </c>
       <c r="AB15" t="n">
-        <v>303.8141031417379</v>
+        <v>346.1297001688461</v>
       </c>
       <c r="AC15" t="n">
-        <v>274.818511543752</v>
+        <v>313.09556738092</v>
       </c>
       <c r="AD15" t="n">
-        <v>222046.7089113065</v>
+        <v>252973.6440282825</v>
       </c>
       <c r="AE15" t="n">
-        <v>303814.1031417379</v>
+        <v>346129.7001688461</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.095801276822947e-06</v>
+        <v>6.962590715722245e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.986111111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>274818.511543752</v>
+        <v>313095.56738092</v>
       </c>
     </row>
     <row r="16">
@@ -19948,28 +19948,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>218.4904503781153</v>
+        <v>249.4173854950913</v>
       </c>
       <c r="AB16" t="n">
-        <v>298.9482733255743</v>
+        <v>341.2638703526826</v>
       </c>
       <c r="AC16" t="n">
-        <v>270.4170696960066</v>
+        <v>308.6941255331745</v>
       </c>
       <c r="AD16" t="n">
-        <v>218490.4503781153</v>
+        <v>249417.3854950913</v>
       </c>
       <c r="AE16" t="n">
-        <v>298948.2733255744</v>
+        <v>341263.8703526826</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.11815297301643e-06</v>
+        <v>7.000587117861684e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.959722222222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>270417.0696960067</v>
+        <v>308694.1255331745</v>
       </c>
     </row>
     <row r="17">
@@ -20054,28 +20054,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>216.4975676117449</v>
+        <v>247.4245027287209</v>
       </c>
       <c r="AB17" t="n">
-        <v>296.2215232048452</v>
+        <v>338.5371202319535</v>
       </c>
       <c r="AC17" t="n">
-        <v>267.9505567797812</v>
+        <v>306.2276126169491</v>
       </c>
       <c r="AD17" t="n">
-        <v>216497.5676117449</v>
+        <v>247424.5027287209</v>
       </c>
       <c r="AE17" t="n">
-        <v>296221.5232048452</v>
+        <v>338537.1202319534</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.125799605924727e-06</v>
+        <v>7.013585887014649e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.949999999999999</v>
       </c>
       <c r="AH17" t="n">
-        <v>267950.5567797812</v>
+        <v>306227.6126169491</v>
       </c>
     </row>
     <row r="18">
@@ -20160,28 +20160,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>212.4316644952209</v>
+        <v>243.358599612197</v>
       </c>
       <c r="AB18" t="n">
-        <v>290.6583751858341</v>
+        <v>332.9739722129424</v>
       </c>
       <c r="AC18" t="n">
-        <v>262.9183477997755</v>
+        <v>301.1954036369434</v>
       </c>
       <c r="AD18" t="n">
-        <v>212431.6644952209</v>
+        <v>243358.599612197</v>
       </c>
       <c r="AE18" t="n">
-        <v>290658.3751858341</v>
+        <v>332973.9722129424</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.145798491992581e-06</v>
+        <v>7.047582667876253e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.926388888888889</v>
       </c>
       <c r="AH18" t="n">
-        <v>262918.3477997755</v>
+        <v>301195.4036369434</v>
       </c>
     </row>
     <row r="19">
@@ -20266,28 +20266,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>211.1092390400972</v>
+        <v>242.0361741570732</v>
       </c>
       <c r="AB19" t="n">
-        <v>288.8489743368411</v>
+        <v>331.1645713639494</v>
       </c>
       <c r="AC19" t="n">
-        <v>261.2816336282997</v>
+        <v>299.5586894654676</v>
       </c>
       <c r="AD19" t="n">
-        <v>211109.2390400972</v>
+        <v>242036.1741570732</v>
       </c>
       <c r="AE19" t="n">
-        <v>288848.9743368411</v>
+        <v>331164.5713639494</v>
       </c>
       <c r="AF19" t="n">
-        <v>4.145651441359728e-06</v>
+        <v>7.047332691546387e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.926388888888889</v>
       </c>
       <c r="AH19" t="n">
-        <v>261281.6336282997</v>
+        <v>299558.6894654676</v>
       </c>
     </row>
     <row r="20">
@@ -20372,28 +20372,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>210.483559553137</v>
+        <v>241.4104946701131</v>
       </c>
       <c r="AB20" t="n">
-        <v>287.9928920597519</v>
+        <v>330.3084890868601</v>
       </c>
       <c r="AC20" t="n">
-        <v>260.5072546422165</v>
+        <v>298.7843104793845</v>
       </c>
       <c r="AD20" t="n">
-        <v>210483.559553137</v>
+        <v>241410.4946701131</v>
       </c>
       <c r="AE20" t="n">
-        <v>287992.8920597519</v>
+        <v>330308.4890868601</v>
       </c>
       <c r="AF20" t="n">
-        <v>4.153151023635174e-06</v>
+        <v>7.060081484369488e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.918055555555555</v>
       </c>
       <c r="AH20" t="n">
-        <v>260507.2546422165</v>
+        <v>298784.3104793845</v>
       </c>
     </row>
     <row r="21">
@@ -20478,28 +20478,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>210.718623769096</v>
+        <v>241.645558886072</v>
       </c>
       <c r="AB21" t="n">
-        <v>288.314517290328</v>
+        <v>330.6301143174362</v>
       </c>
       <c r="AC21" t="n">
-        <v>260.7981844121904</v>
+        <v>299.0752402493583</v>
       </c>
       <c r="AD21" t="n">
-        <v>210718.623769096</v>
+        <v>241645.558886072</v>
       </c>
       <c r="AE21" t="n">
-        <v>288314.5172903279</v>
+        <v>330630.1143174362</v>
       </c>
       <c r="AF21" t="n">
-        <v>4.151239365408099e-06</v>
+        <v>7.056831792081247e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.919444444444445</v>
       </c>
       <c r="AH21" t="n">
-        <v>260798.1844121904</v>
+        <v>299075.2402493584</v>
       </c>
     </row>
     <row r="22">
@@ -20584,28 +20584,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>211.3709124552682</v>
+        <v>242.2978475722442</v>
       </c>
       <c r="AB22" t="n">
-        <v>289.2070074476942</v>
+        <v>331.5226044748024</v>
       </c>
       <c r="AC22" t="n">
-        <v>261.6054965615557</v>
+        <v>299.8825523987236</v>
       </c>
       <c r="AD22" t="n">
-        <v>211370.9124552682</v>
+        <v>242297.8475722442</v>
       </c>
       <c r="AE22" t="n">
-        <v>289207.0074476942</v>
+        <v>331522.6044748024</v>
       </c>
       <c r="AF22" t="n">
-        <v>4.151533466673804e-06</v>
+        <v>7.057331744740977e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.919444444444445</v>
       </c>
       <c r="AH22" t="n">
-        <v>261605.4965615557</v>
+        <v>299882.5523987237</v>
       </c>
     </row>
   </sheetData>
@@ -20881,28 +20881,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>436.5214436661213</v>
+        <v>474.8687777647166</v>
       </c>
       <c r="AB2" t="n">
-        <v>597.2678971909236</v>
+        <v>649.7364114696034</v>
       </c>
       <c r="AC2" t="n">
-        <v>540.2654873537796</v>
+        <v>587.7264802697244</v>
       </c>
       <c r="AD2" t="n">
-        <v>436521.4436661213</v>
+        <v>474868.7777647167</v>
       </c>
       <c r="AE2" t="n">
-        <v>597267.8971909236</v>
+        <v>649736.4114696033</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.683308467557587e-06</v>
+        <v>4.838640144967714e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.234722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>540265.4873537796</v>
+        <v>587726.4802697245</v>
       </c>
     </row>
     <row r="3">
@@ -20987,28 +20987,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>252.8271213481151</v>
+        <v>291.0890250835909</v>
       </c>
       <c r="AB3" t="n">
-        <v>345.9292213737166</v>
+        <v>398.2808460608181</v>
       </c>
       <c r="AC3" t="n">
-        <v>312.9142220006238</v>
+        <v>360.2694811034511</v>
       </c>
       <c r="AD3" t="n">
-        <v>252827.1213481151</v>
+        <v>291089.0250835909</v>
       </c>
       <c r="AE3" t="n">
-        <v>345929.2213737166</v>
+        <v>398280.8460608181</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.687779307906114e-06</v>
+        <v>6.649938768037979e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.991666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>312914.2220006238</v>
+        <v>360269.4811034511</v>
       </c>
     </row>
     <row r="4">
@@ -21093,28 +21093,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.6210424061465</v>
+        <v>250.2748892890159</v>
       </c>
       <c r="AB4" t="n">
-        <v>303.2316874502974</v>
+        <v>342.4371448739271</v>
       </c>
       <c r="AC4" t="n">
-        <v>274.2916807884769</v>
+        <v>309.7554243808131</v>
       </c>
       <c r="AD4" t="n">
-        <v>221621.0424061465</v>
+        <v>250274.8892890159</v>
       </c>
       <c r="AE4" t="n">
-        <v>303231.6874502974</v>
+        <v>342437.1448739271</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.032837472732841e-06</v>
+        <v>7.272160293764841e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.479166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>274291.680788477</v>
+        <v>309755.424380813</v>
       </c>
     </row>
     <row r="5">
@@ -21199,28 +21199,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>207.0285367090604</v>
+        <v>226.2449189399191</v>
       </c>
       <c r="AB5" t="n">
-        <v>283.2655773796383</v>
+        <v>309.5582793148376</v>
       </c>
       <c r="AC5" t="n">
-        <v>256.2311082403436</v>
+        <v>280.0144716048949</v>
       </c>
       <c r="AD5" t="n">
-        <v>207028.5367090604</v>
+        <v>226244.9189399191</v>
       </c>
       <c r="AE5" t="n">
-        <v>283265.5773796383</v>
+        <v>309558.2793148377</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.209105082980888e-06</v>
+        <v>7.590012506999217e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>256231.1082403436</v>
+        <v>280014.471604895</v>
       </c>
     </row>
     <row r="6">
@@ -21305,28 +21305,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>197.8328543556713</v>
+        <v>217.0492365865301</v>
       </c>
       <c r="AB6" t="n">
-        <v>270.683639098864</v>
+        <v>296.9763410340634</v>
       </c>
       <c r="AC6" t="n">
-        <v>244.8499724902212</v>
+        <v>268.6333358547725</v>
       </c>
       <c r="AD6" t="n">
-        <v>197832.8543556713</v>
+        <v>217049.2365865301</v>
       </c>
       <c r="AE6" t="n">
-        <v>270683.639098864</v>
+        <v>296976.3410340634</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.316329243005422e-06</v>
+        <v>7.78336304104251e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.119444444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>244849.9724902212</v>
+        <v>268633.3358547725</v>
       </c>
     </row>
     <row r="7">
@@ -21411,28 +21411,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>191.3324167285881</v>
+        <v>210.5487989594469</v>
       </c>
       <c r="AB7" t="n">
-        <v>261.789453558425</v>
+        <v>288.0821554936244</v>
       </c>
       <c r="AC7" t="n">
-        <v>236.8046355346911</v>
+        <v>260.5879988992424</v>
       </c>
       <c r="AD7" t="n">
-        <v>191332.4167285881</v>
+        <v>210548.7989594469</v>
       </c>
       <c r="AE7" t="n">
-        <v>261789.453558425</v>
+        <v>288082.1554936244</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.383781830320559e-06</v>
+        <v>7.904996017948085e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.040277777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>236804.6355346911</v>
+        <v>260587.9988992424</v>
       </c>
     </row>
     <row r="8">
@@ -21517,28 +21517,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>174.739782457712</v>
+        <v>203.478880686602</v>
       </c>
       <c r="AB8" t="n">
-        <v>239.0866793336628</v>
+        <v>278.4087814099417</v>
       </c>
       <c r="AC8" t="n">
-        <v>216.2685822183892</v>
+        <v>251.8378380614374</v>
       </c>
       <c r="AD8" t="n">
-        <v>174739.782457712</v>
+        <v>203478.880686602</v>
       </c>
       <c r="AE8" t="n">
-        <v>239086.6793336628</v>
+        <v>278408.7814099417</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.445825483747218e-06</v>
+        <v>8.016875407082929e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.969444444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>216268.5822183891</v>
+        <v>251837.8380614374</v>
       </c>
     </row>
     <row r="9">
@@ -21623,28 +21623,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>170.1153477214094</v>
+        <v>198.8544459502994</v>
       </c>
       <c r="AB9" t="n">
-        <v>232.7593237117949</v>
+        <v>272.0814257880738</v>
       </c>
       <c r="AC9" t="n">
-        <v>210.545100536571</v>
+        <v>246.1143563796192</v>
       </c>
       <c r="AD9" t="n">
-        <v>170115.3477214095</v>
+        <v>198854.4459502994</v>
       </c>
       <c r="AE9" t="n">
-        <v>232759.3237117949</v>
+        <v>272081.4257880738</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.480824467731488e-06</v>
+        <v>8.079986857364122e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.930555555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>210545.100536571</v>
+        <v>246114.3563796192</v>
       </c>
     </row>
     <row r="10">
@@ -21729,28 +21729,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>169.4618678750205</v>
+        <v>198.2009661039104</v>
       </c>
       <c r="AB10" t="n">
-        <v>231.8652037564698</v>
+        <v>271.1873058327488</v>
       </c>
       <c r="AC10" t="n">
-        <v>209.7363141348766</v>
+        <v>245.3055699779249</v>
       </c>
       <c r="AD10" t="n">
-        <v>169461.8678750205</v>
+        <v>198200.9661039104</v>
       </c>
       <c r="AE10" t="n">
-        <v>231865.2037564698</v>
+        <v>271187.3058327488</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.487028833074153e-06</v>
+        <v>8.091174796277607e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.925000000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>209736.3141348766</v>
+        <v>245305.5699779249</v>
       </c>
     </row>
     <row r="11">
@@ -21835,28 +21835,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>170.240992776202</v>
+        <v>198.980091005092</v>
       </c>
       <c r="AB11" t="n">
-        <v>232.9312368188306</v>
+        <v>272.2533388951096</v>
       </c>
       <c r="AC11" t="n">
-        <v>210.7006064979528</v>
+        <v>246.269862341001</v>
       </c>
       <c r="AD11" t="n">
-        <v>170240.992776202</v>
+        <v>198980.091005092</v>
       </c>
       <c r="AE11" t="n">
-        <v>232931.2368188306</v>
+        <v>272253.3388951095</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.486869746783315e-06</v>
+        <v>8.090887926049055e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.925000000000001</v>
       </c>
       <c r="AH11" t="n">
-        <v>210700.6064979528</v>
+        <v>246269.862341001</v>
       </c>
     </row>
   </sheetData>
@@ -22132,28 +22132,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>310.7961435321379</v>
+        <v>338.5513945391177</v>
       </c>
       <c r="AB2" t="n">
-        <v>425.2449949388255</v>
+        <v>463.2209538418305</v>
       </c>
       <c r="AC2" t="n">
-        <v>384.6602094569622</v>
+        <v>419.0117961418575</v>
       </c>
       <c r="AD2" t="n">
-        <v>310796.1435321379</v>
+        <v>338551.3945391176</v>
       </c>
       <c r="AE2" t="n">
-        <v>425244.9949388255</v>
+        <v>463220.9538418305</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.210565896685351e-06</v>
+        <v>5.989889729141472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.169444444444443</v>
       </c>
       <c r="AH2" t="n">
-        <v>384660.2094569622</v>
+        <v>419011.7961418575</v>
       </c>
     </row>
     <row r="3">
@@ -22238,28 +22238,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.4869066525127</v>
+        <v>232.242068150941</v>
       </c>
       <c r="AB3" t="n">
-        <v>279.7880070074671</v>
+        <v>317.7638434409041</v>
       </c>
       <c r="AC3" t="n">
-        <v>253.0854323036907</v>
+        <v>287.4369082073538</v>
       </c>
       <c r="AD3" t="n">
-        <v>204486.9066525127</v>
+        <v>232242.068150941</v>
       </c>
       <c r="AE3" t="n">
-        <v>279788.007007467</v>
+        <v>317763.8434409041</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.087364913892029e-06</v>
+        <v>7.625716432810695e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.630555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>253085.4323036907</v>
+        <v>287436.9082073538</v>
       </c>
     </row>
     <row r="4">
@@ -22344,28 +22344,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>182.8856492328889</v>
+        <v>201.3891797403922</v>
       </c>
       <c r="AB4" t="n">
-        <v>250.2322136257332</v>
+        <v>275.5495603842397</v>
       </c>
       <c r="AC4" t="n">
-        <v>226.3504023604836</v>
+        <v>249.2514970774856</v>
       </c>
       <c r="AD4" t="n">
-        <v>182885.6492328889</v>
+        <v>201389.1797403922</v>
       </c>
       <c r="AE4" t="n">
-        <v>250232.2136257332</v>
+        <v>275549.5603842397</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.387640819992672e-06</v>
+        <v>8.185935292581746e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.245833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>226350.4023604836</v>
+        <v>249251.4970774856</v>
       </c>
     </row>
     <row r="5">
@@ -22450,28 +22450,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>171.5884977257098</v>
+        <v>190.0920282332131</v>
       </c>
       <c r="AB5" t="n">
-        <v>234.774952538469</v>
+        <v>260.0922992969755</v>
       </c>
       <c r="AC5" t="n">
-        <v>212.3683605769807</v>
+        <v>235.2694552939827</v>
       </c>
       <c r="AD5" t="n">
-        <v>171588.4977257098</v>
+        <v>190092.0282332131</v>
       </c>
       <c r="AE5" t="n">
-        <v>234774.952538469</v>
+        <v>260092.2992969754</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.534133039083714e-06</v>
+        <v>8.459242948231641e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.076388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>212368.3605769807</v>
+        <v>235269.4552939827</v>
       </c>
     </row>
     <row r="6">
@@ -22556,28 +22556,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>154.6358788169494</v>
+        <v>182.3056994608061</v>
       </c>
       <c r="AB6" t="n">
-        <v>211.5796314507523</v>
+        <v>249.4387007619917</v>
       </c>
       <c r="AC6" t="n">
-        <v>191.3867683790307</v>
+        <v>225.6326212507551</v>
       </c>
       <c r="AD6" t="n">
-        <v>154635.8788169494</v>
+        <v>182305.6994608061</v>
       </c>
       <c r="AE6" t="n">
-        <v>211579.6314507523</v>
+        <v>249438.7007619917</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.615002046907729e-06</v>
+        <v>8.61011866764018e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.9875</v>
       </c>
       <c r="AH6" t="n">
-        <v>191386.7683790307</v>
+        <v>225632.6212507551</v>
       </c>
     </row>
     <row r="7">
@@ -22662,28 +22662,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>153.6880616969371</v>
+        <v>181.3578823407939</v>
       </c>
       <c r="AB7" t="n">
-        <v>210.2827862524119</v>
+        <v>248.1418555636514</v>
       </c>
       <c r="AC7" t="n">
-        <v>190.2136922662859</v>
+        <v>224.4595451380102</v>
       </c>
       <c r="AD7" t="n">
-        <v>153688.0616969371</v>
+        <v>181357.8823407938</v>
       </c>
       <c r="AE7" t="n">
-        <v>210282.7862524119</v>
+        <v>248141.8555636514</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.631904995264387e-06</v>
+        <v>8.641654166369016e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.969444444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>190213.6922662859</v>
+        <v>224459.5451380102</v>
       </c>
     </row>
   </sheetData>
@@ -42196,28 +42196,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>234.6822272830274</v>
+        <v>261.4974438764879</v>
       </c>
       <c r="AB2" t="n">
-        <v>321.1025768176462</v>
+        <v>357.7923391648335</v>
       </c>
       <c r="AC2" t="n">
-        <v>290.4569975565624</v>
+        <v>323.645140479643</v>
       </c>
       <c r="AD2" t="n">
-        <v>234682.2272830274</v>
+        <v>261497.4438764878</v>
       </c>
       <c r="AE2" t="n">
-        <v>321102.5768176462</v>
+        <v>357792.3391648335</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.666603421516543e-06</v>
+        <v>7.051014350459394e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.493055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>290456.9975565624</v>
+        <v>323645.140479643</v>
       </c>
     </row>
     <row r="3">
@@ -42302,28 +42302,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.952743536059</v>
+        <v>197.6826192749445</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.9050856086939</v>
+        <v>270.4780808335098</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.5815125261172</v>
+        <v>244.6640324172095</v>
       </c>
       <c r="AD3" t="n">
-        <v>170952.743536059</v>
+        <v>197682.6192749445</v>
       </c>
       <c r="AE3" t="n">
-        <v>233905.0856086939</v>
+        <v>270478.0808335098</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.419329384576019e-06</v>
+        <v>8.498534291217128e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.387499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>211581.5125261172</v>
+        <v>244664.0324172095</v>
       </c>
     </row>
     <row r="4">
@@ -42408,28 +42408,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>153.7633600477108</v>
+        <v>171.697094849247</v>
       </c>
       <c r="AB4" t="n">
-        <v>210.3858127778691</v>
+        <v>234.9235399138594</v>
       </c>
       <c r="AC4" t="n">
-        <v>190.3068860847522</v>
+        <v>212.5027669818076</v>
       </c>
       <c r="AD4" t="n">
-        <v>153763.3600477108</v>
+        <v>171697.094849247</v>
       </c>
       <c r="AE4" t="n">
-        <v>210385.8127778691</v>
+        <v>234923.5399138594</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.682466335907447e-06</v>
+        <v>9.004556406694951e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.084722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>190306.8860847522</v>
+        <v>212502.7669818076</v>
       </c>
     </row>
     <row r="5">
@@ -42514,28 +42514,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>150.7129542911482</v>
+        <v>168.6466890926844</v>
       </c>
       <c r="AB5" t="n">
-        <v>206.2121130473381</v>
+        <v>230.7498401833283</v>
       </c>
       <c r="AC5" t="n">
-        <v>186.5315183986773</v>
+        <v>208.7273992957328</v>
       </c>
       <c r="AD5" t="n">
-        <v>150712.9542911481</v>
+        <v>168646.6890926844</v>
       </c>
       <c r="AE5" t="n">
-        <v>206212.1130473381</v>
+        <v>230749.8401833283</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.735093726173732e-06</v>
+        <v>9.105760829790517e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.027777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>186531.5183986773</v>
+        <v>208727.3992957328</v>
       </c>
     </row>
   </sheetData>
@@ -42811,28 +42811,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.3428933476748</v>
+        <v>159.5490935979823</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.8138734683702</v>
+        <v>218.3021086698964</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.2709353689923</v>
+        <v>197.467661807438</v>
       </c>
       <c r="AD2" t="n">
-        <v>134342.8933476747</v>
+        <v>159549.0935979823</v>
       </c>
       <c r="AE2" t="n">
-        <v>183813.8734683702</v>
+        <v>218302.1086698964</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.622590443007339e-06</v>
+        <v>9.534551910684837e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.527777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>166270.9353689923</v>
+        <v>197467.661807438</v>
       </c>
     </row>
     <row r="3">
@@ -42917,28 +42917,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.4459820244984</v>
+        <v>152.4815900742137</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.3772151257518</v>
+        <v>208.6320385524311</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.7348984541572</v>
+        <v>188.7204896099518</v>
       </c>
       <c r="AD3" t="n">
-        <v>127445.9820244984</v>
+        <v>152481.5900742137</v>
       </c>
       <c r="AE3" t="n">
-        <v>174377.2151257518</v>
+        <v>208632.0385524311</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.802349671745525e-06</v>
+        <v>9.905323173888908e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.320833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>157734.8984541572</v>
+        <v>188720.4896099518</v>
       </c>
     </row>
   </sheetData>
@@ -43214,28 +43214,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>603.8746425961915</v>
+        <v>653.4257724471283</v>
       </c>
       <c r="AB2" t="n">
-        <v>826.2479270691092</v>
+        <v>894.0459689727268</v>
       </c>
       <c r="AC2" t="n">
-        <v>747.3919845558813</v>
+        <v>808.7194764953673</v>
       </c>
       <c r="AD2" t="n">
-        <v>603874.6425961915</v>
+        <v>653425.7724471283</v>
       </c>
       <c r="AE2" t="n">
-        <v>826247.9270691092</v>
+        <v>894045.9689727267</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.23880464250768e-06</v>
+        <v>3.933491441022558e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.545833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>747391.9845558814</v>
+        <v>808719.4764953674</v>
       </c>
     </row>
     <row r="3">
@@ -43320,28 +43320,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>313.4521678211321</v>
+        <v>343.0975943856737</v>
       </c>
       <c r="AB3" t="n">
-        <v>428.8790845465493</v>
+        <v>469.4412650360708</v>
       </c>
       <c r="AC3" t="n">
-        <v>387.9474666530016</v>
+        <v>424.638449565981</v>
       </c>
       <c r="AD3" t="n">
-        <v>313452.1678211321</v>
+        <v>343097.5943856737</v>
       </c>
       <c r="AE3" t="n">
-        <v>428879.0845465493</v>
+        <v>469441.2650360708</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.349590258608225e-06</v>
+        <v>5.885097950489351e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.380555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>387947.4666530016</v>
+        <v>424638.449565981</v>
       </c>
     </row>
     <row r="4">
@@ -43426,28 +43426,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>258.4921632803956</v>
+        <v>288.2228411909578</v>
       </c>
       <c r="AB4" t="n">
-        <v>353.6803816696377</v>
+        <v>394.3592068118083</v>
       </c>
       <c r="AC4" t="n">
-        <v>319.92562243662</v>
+        <v>356.7221176003115</v>
       </c>
       <c r="AD4" t="n">
-        <v>258492.1632803956</v>
+        <v>288222.8411909578</v>
       </c>
       <c r="AE4" t="n">
-        <v>353680.3816696376</v>
+        <v>394359.2068118083</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.745497086455117e-06</v>
+        <v>6.580690629372585e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.705555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>319925.6224366199</v>
+        <v>356722.1176003115</v>
       </c>
     </row>
     <row r="5">
@@ -43532,28 +43532,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>240.2579346285523</v>
+        <v>269.8180203385252</v>
       </c>
       <c r="AB5" t="n">
-        <v>328.731505590637</v>
+        <v>369.1769189581196</v>
       </c>
       <c r="AC5" t="n">
-        <v>297.3578320747302</v>
+        <v>333.9431919558159</v>
       </c>
       <c r="AD5" t="n">
-        <v>240257.9346285523</v>
+        <v>269818.0203385252</v>
       </c>
       <c r="AE5" t="n">
-        <v>328731.505590637</v>
+        <v>369176.9189581196</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.937064906381031e-06</v>
+        <v>6.91726773205802e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.427777777777777</v>
       </c>
       <c r="AH5" t="n">
-        <v>297357.8320747302</v>
+        <v>333943.1919558159</v>
       </c>
     </row>
     <row r="6">
@@ -43638,28 +43638,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>228.5999166338385</v>
+        <v>248.420458082764</v>
       </c>
       <c r="AB6" t="n">
-        <v>312.7804910548222</v>
+        <v>339.8998302858038</v>
       </c>
       <c r="AC6" t="n">
-        <v>282.929159978819</v>
+        <v>307.4602675358359</v>
       </c>
       <c r="AD6" t="n">
-        <v>228599.9166338385</v>
+        <v>248420.458082764</v>
       </c>
       <c r="AE6" t="n">
-        <v>312780.4910548222</v>
+        <v>339899.8302858038</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.062314870573556e-06</v>
+        <v>7.13732697831179e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.261111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>282929.159978819</v>
+        <v>307460.2675358359</v>
       </c>
     </row>
     <row r="7">
@@ -43744,28 +43744,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>220.6525881273047</v>
+        <v>240.4731295762302</v>
       </c>
       <c r="AB7" t="n">
-        <v>301.9066055807993</v>
+        <v>329.0259448117809</v>
       </c>
       <c r="AC7" t="n">
-        <v>273.0930628728393</v>
+        <v>297.6241704298562</v>
       </c>
       <c r="AD7" t="n">
-        <v>220652.5881273047</v>
+        <v>240473.1295762302</v>
       </c>
       <c r="AE7" t="n">
-        <v>301906.6055807993</v>
+        <v>329025.9448117809</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.145712266878655e-06</v>
+        <v>7.283852913778061e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.155555555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>273093.0628728393</v>
+        <v>297624.1704298562</v>
       </c>
     </row>
     <row r="8">
@@ -43850,28 +43850,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>214.9326700651494</v>
+        <v>234.7532115140749</v>
       </c>
       <c r="AB8" t="n">
-        <v>294.0803613431871</v>
+        <v>321.1997005741686</v>
       </c>
       <c r="AC8" t="n">
-        <v>266.0137444010595</v>
+        <v>290.5448519580764</v>
       </c>
       <c r="AD8" t="n">
-        <v>214932.6700651494</v>
+        <v>234753.2115140749</v>
       </c>
       <c r="AE8" t="n">
-        <v>294080.361343187</v>
+        <v>321199.7005741686</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.202490199049467e-06</v>
+        <v>7.383609500839045e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.084722222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>266013.7444010595</v>
+        <v>290544.8519580764</v>
       </c>
     </row>
     <row r="9">
@@ -43956,28 +43956,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>209.331207854415</v>
+        <v>229.1517493033405</v>
       </c>
       <c r="AB9" t="n">
-        <v>286.4161936273921</v>
+        <v>313.5355328583737</v>
       </c>
       <c r="AC9" t="n">
-        <v>259.0810340953306</v>
+        <v>283.6121416523476</v>
       </c>
       <c r="AD9" t="n">
-        <v>209331.207854415</v>
+        <v>229151.7493033405</v>
       </c>
       <c r="AE9" t="n">
-        <v>286416.1936273921</v>
+        <v>313535.5328583737</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.248651119513543e-06</v>
+        <v>7.464712417148788e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.030555555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>259081.0340953306</v>
+        <v>283612.1416523476</v>
       </c>
     </row>
     <row r="10">
@@ -44062,28 +44062,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>195.0007746814315</v>
+        <v>224.6461117374216</v>
       </c>
       <c r="AB10" t="n">
-        <v>266.8086627460338</v>
+        <v>307.3707207659859</v>
       </c>
       <c r="AC10" t="n">
-        <v>241.3448184419404</v>
+        <v>278.0356905736872</v>
       </c>
       <c r="AD10" t="n">
-        <v>195000.7746814315</v>
+        <v>224646.1117374216</v>
       </c>
       <c r="AE10" t="n">
-        <v>266808.6627460338</v>
+        <v>307370.720765986</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.284195028270882e-06</v>
+        <v>7.527161662707291e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.98888888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>241344.8184419404</v>
+        <v>278035.6905736873</v>
       </c>
     </row>
     <row r="11">
@@ -44168,28 +44168,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>190.2357938909698</v>
+        <v>219.8811309469599</v>
       </c>
       <c r="AB11" t="n">
-        <v>260.2890058124112</v>
+        <v>300.8510638323634</v>
       </c>
       <c r="AC11" t="n">
-        <v>235.4473884156647</v>
+        <v>272.1382605474115</v>
       </c>
       <c r="AD11" t="n">
-        <v>190235.7938909698</v>
+        <v>219881.1309469599</v>
       </c>
       <c r="AE11" t="n">
-        <v>260289.0058124112</v>
+        <v>300851.0638323633</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.319123458088699e-06</v>
+        <v>7.58852953604833e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.948611111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>235447.3884156647</v>
+        <v>272138.2605474115</v>
       </c>
     </row>
     <row r="12">
@@ -44274,28 +44274,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>186.846067807368</v>
+        <v>216.4914048633581</v>
       </c>
       <c r="AB12" t="n">
-        <v>255.651033040669</v>
+        <v>296.2130910606212</v>
       </c>
       <c r="AC12" t="n">
-        <v>231.2520572558205</v>
+        <v>267.9429293875673</v>
       </c>
       <c r="AD12" t="n">
-        <v>186846.067807368</v>
+        <v>216491.4048633581</v>
       </c>
       <c r="AE12" t="n">
-        <v>255651.033040669</v>
+        <v>296213.0910606212</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.336356868395288e-06</v>
+        <v>7.618807958137301e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.927777777777777</v>
       </c>
       <c r="AH12" t="n">
-        <v>231252.0572558205</v>
+        <v>267942.9293875673</v>
       </c>
     </row>
     <row r="13">
@@ -44380,28 +44380,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>185.479373104251</v>
+        <v>215.1247101602411</v>
       </c>
       <c r="AB13" t="n">
-        <v>253.7810610535503</v>
+        <v>294.3431190735025</v>
       </c>
       <c r="AC13" t="n">
-        <v>229.5605527706296</v>
+        <v>266.2514249023764</v>
       </c>
       <c r="AD13" t="n">
-        <v>185479.373104251</v>
+        <v>215124.7101602411</v>
       </c>
       <c r="AE13" t="n">
-        <v>253781.0610535503</v>
+        <v>294343.1190735025</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.34435809460906e-06</v>
+        <v>7.632865796964324e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.919444444444445</v>
       </c>
       <c r="AH13" t="n">
-        <v>229560.5527706296</v>
+        <v>266251.4249023764</v>
       </c>
     </row>
     <row r="14">
@@ -44486,28 +44486,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>184.8727138832633</v>
+        <v>214.5180509392534</v>
       </c>
       <c r="AB14" t="n">
-        <v>252.9510031434795</v>
+        <v>293.5130611634316</v>
       </c>
       <c r="AC14" t="n">
-        <v>228.8097144225021</v>
+        <v>265.5005865542489</v>
       </c>
       <c r="AD14" t="n">
-        <v>184872.7138832633</v>
+        <v>214518.0509392534</v>
       </c>
       <c r="AE14" t="n">
-        <v>252951.0031434795</v>
+        <v>293513.0611634316</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.353436408966995e-06</v>
+        <v>7.648816037171906e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.908333333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>228809.7144225021</v>
+        <v>265500.5865542489</v>
       </c>
     </row>
   </sheetData>
@@ -44783,28 +44783,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>945.3038522014009</v>
+        <v>1006.851292835894</v>
       </c>
       <c r="AB2" t="n">
-        <v>1293.406434444605</v>
+        <v>1377.618358002165</v>
       </c>
       <c r="AC2" t="n">
-        <v>1169.965539648544</v>
+        <v>1246.140395413947</v>
       </c>
       <c r="AD2" t="n">
-        <v>945303.8522014009</v>
+        <v>1006851.292835894</v>
       </c>
       <c r="AE2" t="n">
-        <v>1293406.434444605</v>
+        <v>1377618.358002165</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.738361713762983e-06</v>
+        <v>2.972404803341037e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.84722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1169965.539648544</v>
+        <v>1246140.395413947</v>
       </c>
     </row>
     <row r="3">
@@ -44889,28 +44889,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>387.9778460108763</v>
+        <v>428.9241322459669</v>
       </c>
       <c r="AB3" t="n">
-        <v>530.8484052866348</v>
+        <v>586.8729205361435</v>
       </c>
       <c r="AC3" t="n">
-        <v>480.1849785364938</v>
+        <v>530.8625926814905</v>
       </c>
       <c r="AD3" t="n">
-        <v>387977.8460108763</v>
+        <v>428924.1322459669</v>
       </c>
       <c r="AE3" t="n">
-        <v>530848.4052866348</v>
+        <v>586872.9205361435</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.968589207714832e-06</v>
+        <v>5.075956718499734e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.9375</v>
       </c>
       <c r="AH3" t="n">
-        <v>480184.9785364938</v>
+        <v>530862.5926814905</v>
       </c>
     </row>
     <row r="4">
@@ -44995,28 +44995,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>321.0242562857149</v>
+        <v>351.712725256941</v>
       </c>
       <c r="AB4" t="n">
-        <v>439.239550040758</v>
+        <v>481.2288671668885</v>
       </c>
       <c r="AC4" t="n">
-        <v>397.3191438614476</v>
+        <v>435.3010594934369</v>
       </c>
       <c r="AD4" t="n">
-        <v>321024.2562857149</v>
+        <v>351712.725256941</v>
       </c>
       <c r="AE4" t="n">
-        <v>439239.550040758</v>
+        <v>481228.8671668885</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.404810647657744e-06</v>
+        <v>5.821846767239868e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.048611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>397319.1438614476</v>
+        <v>435301.0594934369</v>
       </c>
     </row>
     <row r="5">
@@ -45101,28 +45101,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>283.2767429368454</v>
+        <v>314.0504632540921</v>
       </c>
       <c r="AB5" t="n">
-        <v>387.5917369740769</v>
+        <v>429.6976987528568</v>
       </c>
       <c r="AC5" t="n">
-        <v>350.6005255856898</v>
+        <v>388.6879534683912</v>
       </c>
       <c r="AD5" t="n">
-        <v>283276.7429368454</v>
+        <v>314050.463254092</v>
       </c>
       <c r="AE5" t="n">
-        <v>387591.7369740769</v>
+        <v>429697.6987528568</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.63433844814436e-06</v>
+        <v>6.214313726944057e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>350600.5255856898</v>
+        <v>388687.9534683912</v>
       </c>
     </row>
     <row r="6">
@@ -45207,28 +45207,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>268.8498343198071</v>
+        <v>299.4529624364615</v>
       </c>
       <c r="AB6" t="n">
-        <v>367.8522041339568</v>
+        <v>409.7247541378895</v>
       </c>
       <c r="AC6" t="n">
-        <v>332.7449060552223</v>
+        <v>370.6211986552727</v>
       </c>
       <c r="AD6" t="n">
-        <v>268849.8343198071</v>
+        <v>299452.9624364615</v>
       </c>
       <c r="AE6" t="n">
-        <v>367852.2041339568</v>
+        <v>409724.7541378895</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.76867448641366e-06</v>
+        <v>6.44401338165465e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.463888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>332744.9060552223</v>
+        <v>370621.1986552727</v>
       </c>
     </row>
     <row r="7">
@@ -45313,28 +45313,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>258.4239644297738</v>
+        <v>289.0270925464282</v>
       </c>
       <c r="AB7" t="n">
-        <v>353.5870689934958</v>
+        <v>395.4596189974286</v>
       </c>
       <c r="AC7" t="n">
-        <v>319.8412153913239</v>
+        <v>357.7175079913745</v>
       </c>
       <c r="AD7" t="n">
-        <v>258423.9644297738</v>
+        <v>289027.0925464282</v>
       </c>
       <c r="AE7" t="n">
-        <v>353587.0689934958</v>
+        <v>395459.6189974286</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.868166188045779e-06</v>
+        <v>6.614133103852009e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.32361111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>319841.215391324</v>
+        <v>357717.5079913745</v>
       </c>
     </row>
     <row r="8">
@@ -45419,28 +45419,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>251.7732933058539</v>
+        <v>272.2891963592392</v>
       </c>
       <c r="AB8" t="n">
-        <v>344.4873273546837</v>
+        <v>372.5580910102523</v>
       </c>
       <c r="AC8" t="n">
-        <v>311.609940323056</v>
+        <v>337.0016696927977</v>
       </c>
       <c r="AD8" t="n">
-        <v>251773.2933058539</v>
+        <v>272289.1963592392</v>
       </c>
       <c r="AE8" t="n">
-        <v>344487.3273546837</v>
+        <v>372558.0910102522</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.931923910403173e-06</v>
+        <v>6.72315170376984e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.237500000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>311609.940323056</v>
+        <v>337001.6696927978</v>
       </c>
     </row>
     <row r="9">
@@ -45525,28 +45525,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>245.6066185176834</v>
+        <v>266.1225215710685</v>
       </c>
       <c r="AB9" t="n">
-        <v>336.0498108550219</v>
+        <v>364.1205745105861</v>
       </c>
       <c r="AC9" t="n">
-        <v>303.9776885559905</v>
+        <v>329.369417925731</v>
       </c>
       <c r="AD9" t="n">
-        <v>245606.6185176834</v>
+        <v>266122.5215710686</v>
       </c>
       <c r="AE9" t="n">
-        <v>336049.8108550219</v>
+        <v>364120.5745105861</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.989009312978978e-06</v>
+        <v>6.820761380440456e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.162500000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>303977.6885559905</v>
+        <v>329369.417925731</v>
       </c>
     </row>
     <row r="10">
@@ -45631,28 +45631,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>241.0485632438951</v>
+        <v>261.5644662972803</v>
       </c>
       <c r="AB10" t="n">
-        <v>329.8132785422213</v>
+        <v>357.8840421977823</v>
       </c>
       <c r="AC10" t="n">
-        <v>298.3363621340935</v>
+        <v>323.7280915038331</v>
       </c>
       <c r="AD10" t="n">
-        <v>241048.5632438951</v>
+        <v>261564.4662972803</v>
       </c>
       <c r="AE10" t="n">
-        <v>329813.2785422213</v>
+        <v>357884.0421977823</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.028598410349732e-06</v>
+        <v>6.888454325040596e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.111111111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>298336.3621340935</v>
+        <v>323728.0915038331</v>
       </c>
     </row>
     <row r="11">
@@ -45737,28 +45737,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>236.3866635476536</v>
+        <v>256.9025666010355</v>
       </c>
       <c r="AB11" t="n">
-        <v>323.4346617093276</v>
+        <v>351.5054253647147</v>
       </c>
       <c r="AC11" t="n">
-        <v>292.5665115392841</v>
+        <v>317.9582409089743</v>
       </c>
       <c r="AD11" t="n">
-        <v>236386.6635476536</v>
+        <v>256902.5666010355</v>
       </c>
       <c r="AE11" t="n">
-        <v>323434.6617093276</v>
+        <v>351505.4253647147</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.067149591310016e-06</v>
+        <v>6.954372548246726e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.063888888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>292566.5115392841</v>
+        <v>317958.2409089743</v>
       </c>
     </row>
     <row r="12">
@@ -45843,28 +45843,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>232.4216545354209</v>
+        <v>252.9375575888028</v>
       </c>
       <c r="AB12" t="n">
-        <v>318.0095614549414</v>
+        <v>346.0803251103286</v>
       </c>
       <c r="AC12" t="n">
-        <v>287.6591752389989</v>
+        <v>313.050904608689</v>
       </c>
       <c r="AD12" t="n">
-        <v>232421.6545354209</v>
+        <v>252937.5575888028</v>
       </c>
       <c r="AE12" t="n">
-        <v>318009.5614549414</v>
+        <v>346080.3251103286</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.094580239300988e-06</v>
+        <v>7.001275899374165e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.029166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>287659.1752389989</v>
+        <v>313050.904608689</v>
       </c>
     </row>
     <row r="13">
@@ -45949,28 +45949,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>229.8982994964856</v>
+        <v>250.4142025498675</v>
       </c>
       <c r="AB13" t="n">
-        <v>314.5569957681045</v>
+        <v>342.6277594234916</v>
       </c>
       <c r="AC13" t="n">
-        <v>284.5361175756061</v>
+        <v>309.9278469452963</v>
       </c>
       <c r="AD13" t="n">
-        <v>229898.2994964856</v>
+        <v>250414.2025498675</v>
       </c>
       <c r="AE13" t="n">
-        <v>314556.9957681044</v>
+        <v>342627.7594234915</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.112521365824813e-06</v>
+        <v>7.031953226327787e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.006944444444445</v>
       </c>
       <c r="AH13" t="n">
-        <v>284536.1175756061</v>
+        <v>309927.8469452963</v>
       </c>
     </row>
     <row r="14">
@@ -46055,28 +46055,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>216.0106878308436</v>
+        <v>246.6990672935182</v>
       </c>
       <c r="AB14" t="n">
-        <v>295.5553528089964</v>
+        <v>337.5445474655569</v>
       </c>
       <c r="AC14" t="n">
-        <v>267.3479647515359</v>
+        <v>305.3297696022925</v>
       </c>
       <c r="AD14" t="n">
-        <v>216010.6878308436</v>
+        <v>246699.0672935182</v>
       </c>
       <c r="AE14" t="n">
-        <v>295555.3528089964</v>
+        <v>337544.5474655569</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.128979754619396e-06</v>
+        <v>7.06009523700425e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.9875</v>
       </c>
       <c r="AH14" t="n">
-        <v>267347.9647515359</v>
+        <v>305329.7696022925</v>
       </c>
     </row>
     <row r="15">
@@ -46161,28 +46161,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>213.2978705591869</v>
+        <v>243.9862500218616</v>
       </c>
       <c r="AB15" t="n">
-        <v>291.8435565368663</v>
+        <v>333.8327511934268</v>
       </c>
       <c r="AC15" t="n">
-        <v>263.9904171060779</v>
+        <v>301.9722219568346</v>
       </c>
       <c r="AD15" t="n">
-        <v>213297.8705591869</v>
+        <v>243986.2500218616</v>
       </c>
       <c r="AE15" t="n">
-        <v>291843.5565368663</v>
+        <v>333832.7511934268</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.150924273012173e-06</v>
+        <v>7.097617917906202e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.961111111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>263990.4171060779</v>
+        <v>301972.2219568345</v>
       </c>
     </row>
     <row r="16">
@@ -46267,28 +46267,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>210.0232378301614</v>
+        <v>240.7116172928361</v>
       </c>
       <c r="AB16" t="n">
-        <v>287.3630595704158</v>
+        <v>329.3522542269763</v>
       </c>
       <c r="AC16" t="n">
-        <v>259.9375324816871</v>
+        <v>297.9193373324435</v>
       </c>
       <c r="AD16" t="n">
-        <v>210023.2378301614</v>
+        <v>240711.6172928361</v>
       </c>
       <c r="AE16" t="n">
-        <v>287363.0595704158</v>
+        <v>329352.2542269763</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.169755042173542e-06</v>
+        <v>7.129816434626117e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.938888888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>259937.5324816871</v>
+        <v>297919.3373324436</v>
       </c>
     </row>
     <row r="17">
@@ -46373,28 +46373,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>206.4900689502074</v>
+        <v>237.178448412882</v>
       </c>
       <c r="AB17" t="n">
-        <v>282.5288220364551</v>
+        <v>324.5180166930156</v>
       </c>
       <c r="AC17" t="n">
-        <v>255.564667793071</v>
+        <v>293.5464726438276</v>
       </c>
       <c r="AD17" t="n">
-        <v>206490.0689502074</v>
+        <v>237178.448412882</v>
       </c>
       <c r="AE17" t="n">
-        <v>282528.8220364551</v>
+        <v>324518.0166930156</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.181765217780401e-06</v>
+        <v>7.150352496471106e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.925000000000001</v>
       </c>
       <c r="AH17" t="n">
-        <v>255564.667793071</v>
+        <v>293546.4726438276</v>
       </c>
     </row>
     <row r="18">
@@ -46479,28 +46479,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>205.9928847231777</v>
+        <v>236.6812641858523</v>
       </c>
       <c r="AB18" t="n">
-        <v>281.8485526428133</v>
+        <v>323.8377472993738</v>
       </c>
       <c r="AC18" t="n">
-        <v>254.9493223555941</v>
+        <v>292.9311272063507</v>
       </c>
       <c r="AD18" t="n">
-        <v>205992.8847231777</v>
+        <v>236681.2641858523</v>
       </c>
       <c r="AE18" t="n">
-        <v>281848.5526428133</v>
+        <v>323837.7472993738</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.188140990016141e-06</v>
+        <v>7.161254356462889e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>254949.3223555941</v>
+        <v>292931.1272063507</v>
       </c>
     </row>
     <row r="19">
@@ -46585,28 +46585,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>205.5375400745425</v>
+        <v>236.2259195372171</v>
       </c>
       <c r="AB19" t="n">
-        <v>281.2255300061628</v>
+        <v>323.2147246627233</v>
       </c>
       <c r="AC19" t="n">
-        <v>254.3857601249676</v>
+        <v>292.3675649757241</v>
       </c>
       <c r="AD19" t="n">
-        <v>205537.5400745425</v>
+        <v>236225.9195372171</v>
       </c>
       <c r="AE19" t="n">
-        <v>281225.5300061628</v>
+        <v>323214.7246627233</v>
       </c>
       <c r="AF19" t="n">
-        <v>4.187251347378595e-06</v>
+        <v>7.159733166696593e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.918055555555555</v>
       </c>
       <c r="AH19" t="n">
-        <v>254385.7601249676</v>
+        <v>292367.5649757241</v>
       </c>
     </row>
     <row r="20">
@@ -46691,28 +46691,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>204.9203212038393</v>
+        <v>235.6087006665139</v>
       </c>
       <c r="AB20" t="n">
-        <v>280.3810239174923</v>
+        <v>322.3702185740527</v>
       </c>
       <c r="AC20" t="n">
-        <v>253.6218525121277</v>
+        <v>291.6036573628842</v>
       </c>
       <c r="AD20" t="n">
-        <v>204920.3212038392</v>
+        <v>235608.7006665139</v>
       </c>
       <c r="AE20" t="n">
-        <v>280381.0239174922</v>
+        <v>322370.2185740527</v>
       </c>
       <c r="AF20" t="n">
-        <v>4.197482237710363e-06</v>
+        <v>7.17722684900899e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.905555555555555</v>
       </c>
       <c r="AH20" t="n">
-        <v>253621.8525121277</v>
+        <v>291603.6573628843</v>
       </c>
     </row>
   </sheetData>
@@ -46988,28 +46988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.389530457169</v>
+        <v>139.8033158574104</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.881046198236</v>
+        <v>191.2850644430263</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.8131007365598</v>
+        <v>173.029086362912</v>
       </c>
       <c r="AD2" t="n">
-        <v>115389.530457169</v>
+        <v>139803.3158574104</v>
       </c>
       <c r="AE2" t="n">
-        <v>157881.046198236</v>
+        <v>191285.0644430263</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.687059080189476e-06</v>
+        <v>1.004652642355049e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.645833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>142813.1007365597</v>
+        <v>173029.086362912</v>
       </c>
     </row>
   </sheetData>
@@ -47285,28 +47285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>345.6441383270356</v>
+        <v>382.986522026761</v>
       </c>
       <c r="AB2" t="n">
-        <v>472.9255588022319</v>
+        <v>524.0190556098952</v>
       </c>
       <c r="AC2" t="n">
-        <v>427.7902072253367</v>
+        <v>474.0074124078497</v>
       </c>
       <c r="AD2" t="n">
-        <v>345644.1383270356</v>
+        <v>382986.522026761</v>
       </c>
       <c r="AE2" t="n">
-        <v>472925.5588022319</v>
+        <v>524019.0556098951</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.025944268563763e-06</v>
+        <v>5.575098169813434e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.495833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>427790.2072253367</v>
+        <v>474007.4124078497</v>
       </c>
     </row>
     <row r="3">
@@ -47391,28 +47391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.4235191928181</v>
+        <v>248.5582511180558</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.5931833588266</v>
+        <v>340.0883647956896</v>
       </c>
       <c r="AC3" t="n">
-        <v>272.8095532278408</v>
+        <v>307.6308085767082</v>
       </c>
       <c r="AD3" t="n">
-        <v>220423.5191928181</v>
+        <v>248558.2511180558</v>
       </c>
       <c r="AE3" t="n">
-        <v>301593.1833588267</v>
+        <v>340088.3647956896</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.945158531259145e-06</v>
+        <v>7.268688434135065e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.748611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>272809.5532278407</v>
+        <v>307630.8085767082</v>
       </c>
     </row>
     <row r="4">
@@ -47497,28 +47497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>196.1601515818401</v>
+        <v>224.1242913064857</v>
       </c>
       <c r="AB4" t="n">
-        <v>268.394973369271</v>
+        <v>306.6567430312871</v>
       </c>
       <c r="AC4" t="n">
-        <v>242.7797338056974</v>
+        <v>277.3898538719137</v>
       </c>
       <c r="AD4" t="n">
-        <v>196160.1515818401</v>
+        <v>224124.2913064857</v>
       </c>
       <c r="AE4" t="n">
-        <v>268394.973369271</v>
+        <v>306656.7430312871</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.26049033819906e-06</v>
+        <v>7.849666014594306e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.32361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>242779.7338056974</v>
+        <v>277389.8538719137</v>
       </c>
     </row>
     <row r="5">
@@ -47603,28 +47603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>183.3660969094731</v>
+        <v>202.1226743681827</v>
       </c>
       <c r="AB5" t="n">
-        <v>250.8895833326909</v>
+        <v>276.5531600934813</v>
       </c>
       <c r="AC5" t="n">
-        <v>226.9450336252336</v>
+        <v>250.1593146390385</v>
       </c>
       <c r="AD5" t="n">
-        <v>183366.0969094731</v>
+        <v>202122.6743681827</v>
       </c>
       <c r="AE5" t="n">
-        <v>250889.5833326909</v>
+        <v>276553.1600934812</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.422483684902527e-06</v>
+        <v>8.148127827031162e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.129166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>226945.0336252336</v>
+        <v>250159.3146390385</v>
       </c>
     </row>
     <row r="6">
@@ -47709,28 +47709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>174.8035102125036</v>
+        <v>193.5600876712132</v>
       </c>
       <c r="AB6" t="n">
-        <v>239.1738744592386</v>
+        <v>264.8374512200289</v>
       </c>
       <c r="AC6" t="n">
-        <v>216.3474555635592</v>
+        <v>239.5617365773641</v>
       </c>
       <c r="AD6" t="n">
-        <v>174803.5102125036</v>
+        <v>193560.0876712131</v>
       </c>
       <c r="AE6" t="n">
-        <v>239173.8744592386</v>
+        <v>264837.4512200289</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.519483733231015e-06</v>
+        <v>8.326843871978229e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.018055555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>216347.4555635592</v>
+        <v>239561.7365773641</v>
       </c>
     </row>
     <row r="7">
@@ -47815,28 +47815,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>159.8287232995065</v>
+        <v>187.8781143701727</v>
       </c>
       <c r="AB7" t="n">
-        <v>218.6847103639134</v>
+        <v>257.0631246785787</v>
       </c>
       <c r="AC7" t="n">
-        <v>197.8137485327629</v>
+        <v>232.5293808496915</v>
       </c>
       <c r="AD7" t="n">
-        <v>159828.7232995065</v>
+        <v>187878.1143701727</v>
       </c>
       <c r="AE7" t="n">
-        <v>218684.7103639134</v>
+        <v>257063.1246785787</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.569943354331188e-06</v>
+        <v>8.419812319602211e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.962499999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>197813.7485327629</v>
+        <v>232529.3808496915</v>
       </c>
     </row>
     <row r="8">
@@ -47921,28 +47921,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>159.1663544126916</v>
+        <v>187.2157454833578</v>
       </c>
       <c r="AB8" t="n">
-        <v>217.7784280313207</v>
+        <v>256.156842345986</v>
       </c>
       <c r="AC8" t="n">
-        <v>196.9939605140173</v>
+        <v>231.709592830946</v>
       </c>
       <c r="AD8" t="n">
-        <v>159166.3544126916</v>
+        <v>187215.7454833578</v>
       </c>
       <c r="AE8" t="n">
-        <v>217778.4280313207</v>
+        <v>256156.842345986</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.586599928286584e-06</v>
+        <v>8.450500933381e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.944444444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>196993.9605140173</v>
+        <v>231709.592830946</v>
       </c>
     </row>
   </sheetData>
@@ -48218,28 +48218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>483.1996286098056</v>
+        <v>531.6831089597459</v>
       </c>
       <c r="AB2" t="n">
-        <v>661.1350491270543</v>
+        <v>727.4722858820368</v>
       </c>
       <c r="AC2" t="n">
-        <v>598.0372479472368</v>
+        <v>658.0433519312203</v>
       </c>
       <c r="AD2" t="n">
-        <v>483199.6286098057</v>
+        <v>531683.108959746</v>
       </c>
       <c r="AE2" t="n">
-        <v>661135.0491270544</v>
+        <v>727472.2858820368</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.527668571812534e-06</v>
+        <v>4.515495438636859e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.638888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>598037.2479472368</v>
+        <v>658043.3519312203</v>
       </c>
     </row>
     <row r="3">
@@ -48324,28 +48324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>279.2553214578757</v>
+        <v>308.3113628345623</v>
       </c>
       <c r="AB3" t="n">
-        <v>382.0894506939561</v>
+        <v>421.8452083676149</v>
       </c>
       <c r="AC3" t="n">
-        <v>345.6233697856364</v>
+        <v>381.5848937444774</v>
       </c>
       <c r="AD3" t="n">
-        <v>279255.3214578757</v>
+        <v>308311.3628345623</v>
       </c>
       <c r="AE3" t="n">
-        <v>382089.4506939561</v>
+        <v>421845.2083676149</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.567381967682179e-06</v>
+        <v>6.372867543862059e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.120833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>345623.3697856364</v>
+        <v>381584.8937444774</v>
       </c>
     </row>
     <row r="4">
@@ -48430,28 +48430,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>234.2163073737724</v>
+        <v>263.3576000964824</v>
       </c>
       <c r="AB4" t="n">
-        <v>320.4650846428682</v>
+        <v>360.3374869693308</v>
       </c>
       <c r="AC4" t="n">
-        <v>289.8803467402191</v>
+        <v>325.9473829498164</v>
       </c>
       <c r="AD4" t="n">
-        <v>234216.3073737724</v>
+        <v>263357.6000964824</v>
       </c>
       <c r="AE4" t="n">
-        <v>320465.0846428682</v>
+        <v>360337.4869693308</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.930251847867744e-06</v>
+        <v>7.021108103193643e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>289880.3467402191</v>
+        <v>325947.3829498164</v>
       </c>
     </row>
     <row r="5">
@@ -48536,28 +48536,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>217.8255569638711</v>
+        <v>246.7962574859856</v>
       </c>
       <c r="AB5" t="n">
-        <v>298.0385368231787</v>
+        <v>337.6775273746194</v>
       </c>
       <c r="AC5" t="n">
-        <v>269.5941571685761</v>
+        <v>305.4500580954726</v>
       </c>
       <c r="AD5" t="n">
-        <v>217825.5569638711</v>
+        <v>246796.2574859856</v>
       </c>
       <c r="AE5" t="n">
-        <v>298038.5368231787</v>
+        <v>337677.5273746194</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.117661248726147e-06</v>
+        <v>7.355901321011342e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.302777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>269594.1571685761</v>
+        <v>305450.0580954726</v>
       </c>
     </row>
     <row r="6">
@@ -48642,28 +48642,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>208.0175705268488</v>
+        <v>227.4451885172043</v>
       </c>
       <c r="AB6" t="n">
-        <v>284.6188170822282</v>
+        <v>311.200541102635</v>
       </c>
       <c r="AC6" t="n">
-        <v>257.4551966450027</v>
+        <v>281.4999982325943</v>
       </c>
       <c r="AD6" t="n">
-        <v>208017.5705268488</v>
+        <v>227445.1885172043</v>
       </c>
       <c r="AE6" t="n">
-        <v>284618.8170822283</v>
+        <v>311200.541102635</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.230861557969477e-06</v>
+        <v>7.558125412310622e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.161111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>257455.1966450027</v>
+        <v>281499.9982325943</v>
       </c>
     </row>
     <row r="7">
@@ -48748,28 +48748,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>200.8551701717611</v>
+        <v>220.2827881621167</v>
       </c>
       <c r="AB7" t="n">
-        <v>274.8189049335995</v>
+        <v>301.4006289540063</v>
       </c>
       <c r="AC7" t="n">
-        <v>248.5905743575729</v>
+        <v>272.6353759451644</v>
       </c>
       <c r="AD7" t="n">
-        <v>200855.1701717611</v>
+        <v>220282.7881621167</v>
       </c>
       <c r="AE7" t="n">
-        <v>274818.9049335995</v>
+        <v>301400.6289540062</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.304756204281096e-06</v>
+        <v>7.690132805242097e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.072222222222223</v>
       </c>
       <c r="AH7" t="n">
-        <v>248590.5743575729</v>
+        <v>272635.3759451644</v>
       </c>
     </row>
     <row r="8">
@@ -48854,28 +48854,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>195.4072015915581</v>
+        <v>214.8348195819136</v>
       </c>
       <c r="AB8" t="n">
-        <v>267.3647539747586</v>
+        <v>293.9464779951653</v>
       </c>
       <c r="AC8" t="n">
-        <v>241.8478371042748</v>
+        <v>265.8926386918664</v>
       </c>
       <c r="AD8" t="n">
-        <v>195407.2015915581</v>
+        <v>214834.8195819136</v>
       </c>
       <c r="AE8" t="n">
-        <v>267364.7539747586</v>
+        <v>293946.4779951653</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.353023558361238e-06</v>
+        <v>7.776358910837763e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.016666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>241847.8371042748</v>
+        <v>265892.6386918664</v>
       </c>
     </row>
     <row r="9">
@@ -48960,28 +48960,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>180.01484245166</v>
+        <v>209.0707943197951</v>
       </c>
       <c r="AB9" t="n">
-        <v>246.3042491366012</v>
+        <v>286.0598843406912</v>
       </c>
       <c r="AC9" t="n">
-        <v>222.7973172892603</v>
+        <v>258.7587304668689</v>
       </c>
       <c r="AD9" t="n">
-        <v>180014.84245166</v>
+        <v>209070.7943197951</v>
       </c>
       <c r="AE9" t="n">
-        <v>246304.2491366012</v>
+        <v>286059.8843406911</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.399718685924112e-06</v>
+        <v>7.859776348498714e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.963888888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>222797.3172892603</v>
+        <v>258758.730466869</v>
       </c>
     </row>
     <row r="10">
@@ -49066,28 +49066,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>176.1270998551649</v>
+        <v>205.1830517233</v>
       </c>
       <c r="AB10" t="n">
-        <v>240.9848682009809</v>
+        <v>280.7405034050707</v>
       </c>
       <c r="AC10" t="n">
-        <v>217.9856106043358</v>
+        <v>253.9470237819445</v>
       </c>
       <c r="AD10" t="n">
-        <v>176127.0998551649</v>
+        <v>205183.0517233</v>
       </c>
       <c r="AE10" t="n">
-        <v>240984.8682009809</v>
+        <v>280740.5034050707</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.424088196941773e-06</v>
+        <v>7.903310701486754e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.936111111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>217985.6106043358</v>
+        <v>253947.0237819445</v>
       </c>
     </row>
     <row r="11">
@@ -49172,28 +49172,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>174.5088826025723</v>
+        <v>203.5648344707074</v>
       </c>
       <c r="AB11" t="n">
-        <v>238.7707519652781</v>
+        <v>278.526387169368</v>
       </c>
       <c r="AC11" t="n">
-        <v>215.9828065146362</v>
+        <v>251.9442196922448</v>
       </c>
       <c r="AD11" t="n">
-        <v>174508.8826025723</v>
+        <v>203564.8344707074</v>
       </c>
       <c r="AE11" t="n">
-        <v>238770.7519652781</v>
+        <v>278526.387169368</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.440911020676546e-06</v>
+        <v>7.933363448388176e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>215982.8065146362</v>
+        <v>251944.2196922448</v>
       </c>
     </row>
   </sheetData>
